--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/37 от 05-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,26 +9274,26 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.001114999999999998</v>
+        <v>-0.000224999999999996</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.001114999999999998</v>
+        <v>-0.000224999999999996</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.002534999999999982</v>
+        <v>0.02016705597072985</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004526802405793505</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.00605</v>
+        <v>-7.499999999999174e-05</v>
       </c>
       <c r="O65" s="172" t="n">
         <v>0</v>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008734082312217901</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005818354500322492</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008734082312217901</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005818354500322492</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01656579597595667</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0003792295905836129</v>
+        <v>0.001212536358694689</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02564180657738313</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0003416343362993346</v>
+        <v>0.001199046727324471</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9356,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01643502535433763</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01643502535433763</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03639385461828024</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001236618230163954</v>
+        <v>0.001824321458546548</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.05453866805272101</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001090322349891494</v>
+        <v>0.001824185884361923</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01807836430823727</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01807836430823727</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03957086829831177</v>
+        <v>0.03808982006608819</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002032064054578399</v>
+        <v>0.002736482187819822</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05720419830612744</v>
+        <v>0.05437763581866384</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002029858589046653</v>
+        <v>0.002736278826542884</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02007829317566971</v>
+        <v>0.01777081928110569</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02007829317566971</v>
+        <v>0.01777081928110569</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04572219974149039</v>
+        <v>0.03620969884648606</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002709418739437865</v>
+        <v>0.003648642917093096</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0622852928754361</v>
+        <v>0.05605782215036109</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002706478118728871</v>
+        <v>0.003648371768723846</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005818354500322492</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008734082312217901</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02135378302398117</v>
+        <v>0.01819106880172729</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02135378302398117</v>
+        <v>0.01819106880172729</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04818941989190376</v>
+        <v>0.03758672802753871</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00338677342429733</v>
+        <v>0.004560803646366371</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06739212157802071</v>
+        <v>0.05708444001403623</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003383097648411088</v>
+        <v>0.004560464710904807</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02102398636124182</v>
+        <v>0.01798857243708003</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02102398636124182</v>
+        <v>0.01798857243708003</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04905241810814953</v>
+        <v>0.03975818783622412</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004064128109156798</v>
+        <v>0.005472964375639644</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0680955890226837</v>
+        <v>0.05859433958827914</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004059717178093306</v>
+        <v>0.005472557653085769</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02312321419007429</v>
+        <v>0.01852716791632845</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02312321419007429</v>
+        <v>0.01852716791632845</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05170021322446899</v>
+        <v>0.04051490706254188</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004741482794016263</v>
+        <v>0.006385125104912918</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07251855711459665</v>
+        <v>0.05863673533488623</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004736336707775524</v>
+        <v>0.00638465059526673</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02269617065227419</v>
+        <v>0.01951494579203565</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02269617065227419</v>
+        <v>0.01951494579203565</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05143769003676565</v>
+        <v>0.04113594073026156</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005418837478875729</v>
+        <v>0.007297285834186192</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07664841492834479</v>
+        <v>0.06113078815711415</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005412956237457742</v>
+        <v>0.007296743537447692</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02374756847087076</v>
+        <v>0.0185671568258106</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02374756847087076</v>
+        <v>0.0185671568258106</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05412261646180505</v>
+        <v>0.03859839593961298</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006096192163735195</v>
+        <v>0.008209446563459467</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08455966765202411</v>
+        <v>0.06123193230825164</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006089575767139959</v>
+        <v>0.008208836479628653</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02510447567755439</v>
+        <v>0.01931828687739942</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02510447567755439</v>
+        <v>0.01931828687739942</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.050356846582123</v>
+        <v>0.04018993222012321</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006773546848594661</v>
+        <v>0.009121607292732741</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08498873577980492</v>
+        <v>0.06028407639788252</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006766195296822176</v>
+        <v>0.009120929421809615</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0262252637706013</v>
+        <v>0.01982756710230425</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0262252637706013</v>
+        <v>0.01982756710230425</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05214155912235616</v>
+        <v>0.04141249078094186</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007450901533454128</v>
+        <v>0.01003376802200601</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08935226941195779</v>
+        <v>0.05858004107900316</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007442814826504395</v>
+        <v>0.01003302236399058</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02623018297256126</v>
+        <v>0.01947943776304818</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02623018297256126</v>
+        <v>0.01947943776304818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05877160312890228</v>
+        <v>0.03922579527228054</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008128256218313595</v>
+        <v>0.01094592875127929</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0844550808358101</v>
+        <v>0.06248794269568225</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008119434356186611</v>
+        <v>0.01094511530617154</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02796770304935345</v>
+        <v>0.01991827498876222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02796770304935345</v>
+        <v>0.01991827498876222</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05247097108265128</v>
+        <v>0.04072729178939524</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008805610903173061</v>
+        <v>0.01185808948055256</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0817409320503546</v>
+        <v>0.06402724301097384</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00879605388586883</v>
+        <v>0.0118572082483525</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02596657879944569</v>
+        <v>0.01957146736423646</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02596657879944569</v>
+        <v>0.01957146736423646</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05465476371118522</v>
+        <v>0.04125751908593397</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009482965588032527</v>
+        <v>0.01277025020982584</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09527482434183193</v>
+        <v>0.06161305520997956</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009472673415551048</v>
+        <v>0.01276930119053346</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02753212581500029</v>
+        <v>0.01916996988362167</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02753212581500029</v>
+        <v>0.01916996988362167</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06020366988808037</v>
+        <v>0.0418244692050504</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01016032027289199</v>
+        <v>0.01368241093909911</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09288876737534868</v>
+        <v>0.06483484682014157</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01014929294523327</v>
+        <v>0.01368139413271442</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02873899299255349</v>
+        <v>0.01972989828339275</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02873899299255349</v>
+        <v>0.01972989828339275</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06165326465974763</v>
+        <v>0.0401173031638791</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01083767495775146</v>
+        <v>0.01459457166837238</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08648478066822918</v>
+        <v>0.06458616362856423</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01082591247491548</v>
+        <v>0.01459348707489538</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03002019909127991</v>
+        <v>0.01969928192686787</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03002019909127991</v>
+        <v>0.01969928192686787</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06391000310207942</v>
+        <v>0.04104864768843555</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01151502964261092</v>
+        <v>0.01550673239764566</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09599222427261611</v>
+        <v>0.05961529866429061</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0115025320045977</v>
+        <v>0.01550558001707635</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02893388563388978</v>
+        <v>0.02029406221071141</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02893388563388978</v>
+        <v>0.02029406221071141</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06326217670516246</v>
+        <v>0.04278600432027782</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01219238432747039</v>
+        <v>0.01641889312691893</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08997296158318541</v>
+        <v>0.06142853735331161</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01217915153427992</v>
+        <v>0.01641767295925731</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02865031922060385</v>
+        <v>0.020599789791066</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02865031922060385</v>
+        <v>0.020599789791066</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05750015754600238</v>
+        <v>0.04225036022033835</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01286973901232986</v>
+        <v>0.01733105385619221</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09890423397035747</v>
+        <v>0.06473324005874015</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01285577106396214</v>
+        <v>0.01732976590143827</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0304921134741887</v>
+        <v>0.01954788781137684</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0304921134741887</v>
+        <v>0.01954788781137684</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06247368938713374</v>
+        <v>0.04030579314860736</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01354709369718932</v>
+        <v>0.01824321458546548</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09591805692866823</v>
+        <v>0.06483797370600003</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01353239059364435</v>
+        <v>0.01824185884361923</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03037084973666529</v>
+        <v>0.01977926797564381</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03037084973666529</v>
+        <v>0.01977926797564381</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06554421687873457</v>
+        <v>0.04272996442025648</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01422444838204879</v>
+        <v>0.01915537531473875</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09522340942460417</v>
+        <v>0.0598839193187905</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01420901012332657</v>
+        <v>0.01915395178580019</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02967224247581192</v>
+        <v>0.01981005309855678</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02967224247581192</v>
+        <v>0.01981005309855678</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06124913781903107</v>
+        <v>0.04223965924965126</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01490180306690826</v>
+        <v>0.02006753604401203</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09713530586625474</v>
+        <v>0.06461396046573264</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01488562965300879</v>
+        <v>0.02006604472798115</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03066478387529567</v>
+        <v>0.02020458483814282</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03066478387529567</v>
+        <v>0.02020458483814282</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0653590412215839</v>
+        <v>0.04209949400663618</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01557915775176772</v>
+        <v>0.0209796967732853</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0981034403557437</v>
+        <v>0.06438598894892394</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01556224918269101</v>
+        <v>0.02097813767016211</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03123140781063068</v>
+        <v>0.02022252842493599</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03123140781063068</v>
+        <v>0.02022252842493599</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06499752997946293</v>
+        <v>0.04117913243983198</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01625651243662719</v>
+        <v>0.02189185750255858</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09302735411789675</v>
+        <v>0.06493912741315605</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01623886871237322</v>
+        <v>0.02189023061234308</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0322084827805961</v>
+        <v>0.02044898853450525</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0322084827805961</v>
+        <v>0.02044898853450525</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06346812911315364</v>
+        <v>0.04103529433584316</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01693386712148666</v>
+        <v>0.02280401823183185</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1029755145401854</v>
+        <v>0.06636264661332397</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01691548824205544</v>
+        <v>0.02280232355452404</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03206627820466773</v>
+        <v>0.02057391934001791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03206627820466773</v>
+        <v>0.02057391934001791</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06403799390951109</v>
+        <v>0.04134975406474245</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01761122180634612</v>
+        <v>0.02371617896110513</v>
       </c>
       <c r="N91" t="n">
-        <v>0.103615524544548</v>
+        <v>0.06606951113927267</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01759210777173766</v>
+        <v>0.023714416496705</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03019713536712262</v>
+        <v>0.02017534074577959</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03019713536712262</v>
+        <v>0.02017534074577959</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06226218852251469</v>
+        <v>0.04248297034003751</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01828857649120559</v>
+        <v>0.0246283396903784</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09884990225846224</v>
+        <v>0.06496140113442889</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01826872730141988</v>
+        <v>0.02462650943888596</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02985291273287737</v>
+        <v>0.02078269260306682</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02985291273287737</v>
+        <v>0.02078269260306682</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0681037674498608</v>
+        <v>0.04179876339188751</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01896593117606505</v>
+        <v>0.02554050041965167</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09838800406070358</v>
+        <v>0.06450914624025345</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0189453468311021</v>
+        <v>0.02553860238106692</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03311506408347636</v>
+        <v>0.02085685662014909</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03311506408347636</v>
+        <v>0.02085685662014909</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06618786193739373</v>
+        <v>0.04431256576381021</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01964328586092452</v>
+        <v>0.02645266114892495</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1031343423147488</v>
+        <v>0.06549596463247226</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01962196636078431</v>
+        <v>0.02645069532324788</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03079339650486584</v>
+        <v>0.02150524692959883</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03079339650486584</v>
+        <v>0.02150524692959883</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06893043579344876</v>
+        <v>0.04261606854143238</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02032064054578398</v>
+        <v>0.02736482187819822</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1063365551689442</v>
+        <v>0.0640100031158275</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02029858589046653</v>
+        <v>0.02736278826542884</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03100463957194671</v>
+        <v>0.02114332587718162</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03100463957194671</v>
+        <v>0.02114332587718162</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0701496036548295</v>
+        <v>0.04213176072198263</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02099799523064345</v>
+        <v>0.0282769826074715</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09519871368259242</v>
+        <v>0.06841634985180256</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02097520542014875</v>
+        <v>0.0282748812076098</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03265414565373596</v>
+        <v>0.02076413121987471</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03265414565373596</v>
+        <v>0.02076413121987471</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06658077346127106</v>
+        <v>0.04217895727567805</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02167534991550292</v>
+        <v>0.02918914333674477</v>
       </c>
       <c r="N97" t="n">
-        <v>0.104659499919395</v>
+        <v>0.06517858795104919</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02165182494983097</v>
+        <v>0.02918697414979077</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03124614803314668</v>
+        <v>0.02134805399885062</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03124614803314668</v>
+        <v>0.02134805399885062</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06723994824030702</v>
+        <v>0.04590473337034412</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02235270460036238</v>
+        <v>0.03010130406601804</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1068679228947019</v>
+        <v>0.06808478625862907</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02232844447951318</v>
+        <v>0.03009906709197173</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03084451181413164</v>
+        <v>0.0221400093045048</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03084451181413164</v>
+        <v>0.0221400093045048</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06301984525225801</v>
+        <v>0.04290769980235332</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02303005928522185</v>
+        <v>0.03101346479529132</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1035259084222561</v>
+        <v>0.06796472596141373</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0230050640091954</v>
+        <v>0.03101116003415269</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03248257755190292</v>
+        <v>0.0213196096133982</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03248257755190292</v>
+        <v>0.0213196096133982</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06695347502536253</v>
+        <v>0.04613446746736882</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02370741397008131</v>
+        <v>0.03192562552456459</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1084447723446926</v>
+        <v>0.06501642377672306</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02368168353887762</v>
+        <v>0.03192325297633365</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0335769943343741</v>
+        <v>0.02148770891978539</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0335769943343741</v>
+        <v>0.02148770891978539</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06556776481532015</v>
+        <v>0.04374005836141287</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02438476865494078</v>
+        <v>0.03283778625383787</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1034499427292682</v>
+        <v>0.06578285488367763</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02435830306855984</v>
+        <v>0.03283534591851461</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03193374373897871</v>
+        <v>0.02156004317044793</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03193374373897871</v>
+        <v>0.02156004317044793</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06348604222834683</v>
+        <v>0.04380100686994437</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02506212333980025</v>
+        <v>0.03374994698311114</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1059583374957025</v>
+        <v>0.07016256165551477</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02503492259824205</v>
+        <v>0.03374743886069557</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03240163106466649</v>
+        <v>0.02246122983392537</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03240163106466649</v>
+        <v>0.02246122983392537</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06674662083815336</v>
+        <v>0.04442490590559103</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02573947802465971</v>
+        <v>0.03466210771238441</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1080528881600094</v>
+        <v>0.07053081548600526</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02571154212792427</v>
+        <v>0.03465953180287654</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03378763758651251</v>
+        <v>0.02191091638696685</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03378763758651251</v>
+        <v>0.02191091638696685</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0686286924879542</v>
+        <v>0.04395216604030905</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02641683270951918</v>
+        <v>0.03557426844165769</v>
       </c>
       <c r="N104" t="n">
-        <v>0.103386349440406</v>
+        <v>0.0712804456632824</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02638816165760649</v>
+        <v>0.0355716247450575</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03221687961012498</v>
+        <v>0.02148457148375538</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03221687961012498</v>
+        <v>0.02148457148375538</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06688709655177771</v>
+        <v>0.04619924219935254</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02709418739437864</v>
+        <v>0.03648642917093096</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1081691514145827</v>
+        <v>0.0675083369565051</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0270647811872887</v>
+        <v>0.03648371768723846</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03172001238607673</v>
+        <v>0.02155890353931346</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03172001238607673</v>
+        <v>0.02155890353931346</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06972622914595644</v>
+        <v>0.04530321452259664</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02777154207923811</v>
+        <v>0.03739858990020423</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1051250199776085</v>
+        <v>0.07061327388008026</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02774140071697093</v>
+        <v>0.03739581062941942</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03333827890218394</v>
+        <v>0.02205363944635992</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03333827890218394</v>
+        <v>0.02205363944635992</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07261890029375517</v>
+        <v>0.04702203438406535</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02844889676409758</v>
+        <v>0.03831075062947751</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1062943316232522</v>
+        <v>0.06813107512513289</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02841802024665314</v>
+        <v>0.03830790357160038</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03374356312622864</v>
+        <v>0.02242674298920547</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03374356312622864</v>
+        <v>0.02242674298920547</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07269668994544598</v>
+        <v>0.04449118291046322</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02912625144895704</v>
+        <v>0.03922291135875079</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1093545830767094</v>
+        <v>0.06771989605748147</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02909463977633536</v>
+        <v>0.03921999651378134</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03194552922224975</v>
+        <v>0.02271647882782143</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03194552922224975</v>
+        <v>0.02271647882782143</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07050476888367152</v>
+        <v>0.04457950854080797</v>
       </c>
       <c r="M109" t="n">
-        <v>0.02980360613381651</v>
+        <v>0.04013507208802405</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1056960991756427</v>
+        <v>0.07416479083069616</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02977125930601758</v>
+        <v>0.04013208945596231</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03379669713523038</v>
+        <v>0.02265802005272337</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03379669713523038</v>
+        <v>0.02265802005272337</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06651272918650269</v>
+        <v>0.04546129071539376</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03048096081867598</v>
+        <v>0.04104723281729733</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1022473690601423</v>
+        <v>0.0700841012907471</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0304478788356998</v>
+        <v>0.04104418239814327</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03462235120527035</v>
+        <v>0.0224470848466377</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03462235120527035</v>
+        <v>0.0224470848466377</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07213036197459552</v>
+        <v>0.04580348786168906</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03115831550353544</v>
+        <v>0.04195939354657061</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1026156384461405</v>
+        <v>0.06976586875744589</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03112449836538201</v>
+        <v>0.04195627534032423</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03180069210579385</v>
+        <v>0.02311832000118121</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03180069210579385</v>
+        <v>0.02311832000118121</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06647182558144374</v>
+        <v>0.04553430892032606</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03183567018839491</v>
+        <v>0.04287155427584388</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1091606796885348</v>
+        <v>0.07058064779413237</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03180111789506423</v>
+        <v>0.04286836828250519</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03248818518981793</v>
+        <v>0.02325339279392322</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03248818518981793</v>
+        <v>0.02325339279392322</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06581074328670289</v>
+        <v>0.04705438961165354</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03251302487325438</v>
+        <v>0.04378371500511715</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1022187129189722</v>
+        <v>0.07067253379017102</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03247773742474645</v>
+        <v>0.04378046122468615</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03479124216402889</v>
+        <v>0.02337286163706598</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03479124216402889</v>
+        <v>0.02337286163706598</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06598248723003733</v>
+        <v>0.04873923646151118</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03319037955811385</v>
+        <v>0.04469587573439043</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1045128241623131</v>
+        <v>0.07036948188108416</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03315435695442867</v>
+        <v>0.04469255416686711</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03477236083282174</v>
+        <v>0.02387964301934307</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03477236083282174</v>
+        <v>0.02387964301934307</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06652865565646673</v>
+        <v>0.04691607533451359</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03386773424297331</v>
+        <v>0.0456080364636637</v>
       </c>
       <c r="N115" t="n">
-        <v>0.111329501531974</v>
+        <v>0.07055315517463684</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03383097648411088</v>
+        <v>0.04560464710904807</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03502375844824288</v>
+        <v>0.02287519657765548</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03502375844824288</v>
+        <v>0.02287519657765548</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07143603817554167</v>
+        <v>0.04943193642894833</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03454508892783278</v>
+        <v>0.04652019719293697</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1009595914811806</v>
+        <v>0.07242936196842381</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03450759601379311</v>
+        <v>0.04651674005122904</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03494884809857755</v>
+        <v>0.02365290936184924</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03494884809857755</v>
+        <v>0.02365290936184924</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07132225125662736</v>
+        <v>0.04793328348304254</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03522244361269224</v>
+        <v>0.04743235792221025</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1100198537567362</v>
+        <v>0.0701454064218866</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03518421554347532</v>
+        <v>0.04742883299341</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03390672223373889</v>
+        <v>0.02259917991835719</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03390672223373889</v>
+        <v>0.02259917991835719</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07320528122250469</v>
+        <v>0.04981478032045494</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03589979829755171</v>
+        <v>0.04834451865148352</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1024456263213236</v>
+        <v>0.07425332614453334</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03586083507315754</v>
+        <v>0.04834092593559096</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03425784247420628</v>
+        <v>0.02318388185527796</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03425784247420628</v>
+        <v>0.02318388185527796</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07057183763325089</v>
+        <v>0.04936704139604986</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03657715298241117</v>
+        <v>0.0492566793807568</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1113086407005401</v>
+        <v>0.07343223855897907</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03653745460283975</v>
+        <v>0.04925301887777192</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03474893051864116</v>
+        <v>0.02397333148197234</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03474893051864116</v>
+        <v>0.02397333148197234</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07135068165257999</v>
+        <v>0.04780445272728256</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03725450766727064</v>
+        <v>0.05016884011003007</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1062848668274416</v>
+        <v>0.07354017178023381</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03721407413252197</v>
+        <v>0.05016511181995288</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03267425284666441</v>
+        <v>0.02379403507739948</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03267425284666441</v>
+        <v>0.02379403507739948</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06828901734017578</v>
+        <v>0.04735479004183371</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03793186235213011</v>
+        <v>0.05108100083930334</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1077634804854168</v>
+        <v>0.07569650961174607</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03789069366220419</v>
+        <v>0.05107720476213384</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03529149470684893</v>
+        <v>0.02348942597460126</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03529149470684893</v>
+        <v>0.02348942597460126</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06703814901020566</v>
+        <v>0.0497708590624179</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03860921703698957</v>
+        <v>0.05199316156857662</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.07585119377025806</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03856731319188641</v>
+        <v>0.0519892977043148</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03416010970670695</v>
+        <v>0.02366401553856301</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03416010970670695</v>
+        <v>0.02366401553856301</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06899704419637193</v>
+        <v>0.04875741863045907</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03928657172184904</v>
+        <v>0.0529053222978499</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1068895437170747</v>
+        <v>0.07270267972618799</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03924393272156863</v>
+        <v>0.05290139064649577</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03477603641425482</v>
+        <v>0.02431960585392151</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03477603641425482</v>
+        <v>0.02431960585392151</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06622689406631255</v>
+        <v>0.05057802186710431</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0399639264067085</v>
+        <v>0.05381748302712317</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1051796474244315</v>
+        <v>0.07697199480117267</v>
       </c>
       <c r="O124" t="n">
-        <v>0.03992055225125084</v>
+        <v>0.05381348358867672</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0331886686670366</v>
+        <v>0.02372973087559657</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0331886686670366</v>
+        <v>0.02372973087559657</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06688417434859947</v>
+        <v>0.05006026592054733</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04064128109156797</v>
+        <v>0.05472964375639644</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1009132064676827</v>
+        <v>0.07858586666923612</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04059717178093306</v>
+        <v>0.05472557653085769</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03400114544771869</v>
+        <v>0.02349097866474244</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03400114544771869</v>
+        <v>0.02349097866474244</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07533610382741521</v>
+        <v>0.05114143662080059</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04131863577642744</v>
+        <v>0.05564180448566971</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1060262276799833</v>
+        <v>0.07471373408348514</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04127379131061528</v>
+        <v>0.05563766947303865</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03395259066115483</v>
+        <v>0.02401570453756448</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03395259066115483</v>
+        <v>0.02401570453756448</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06673730013304985</v>
+        <v>0.05046011501629408</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0419959904612869</v>
+        <v>0.05655396521494299</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1109922488749166</v>
+        <v>0.07329925326499465</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0419504108402975</v>
+        <v>0.05654976241521961</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03566390891311949</v>
+        <v>0.02433622314661602</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03566390891311949</v>
+        <v>0.02433622314661602</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07112843179138961</v>
+        <v>0.04967629021629344</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04267334514614637</v>
+        <v>0.05746612594421627</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1042732914598662</v>
+        <v>0.0784550250859597</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04262703036997971</v>
+        <v>0.05746185535740058</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03399194926413097</v>
+        <v>0.02415840816342775</v>
       </c>
       <c r="G129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03399194926413097</v>
+        <v>0.02415840816342775</v>
       </c>
       <c r="K129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07015443283342171</v>
+        <v>0.04945225910011528</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04335069983100583</v>
+        <v>0.05837828667348954</v>
       </c>
       <c r="N129" t="n">
-        <v>0.107625827072319</v>
+        <v>0.07729353635492248</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04330364989966193</v>
+        <v>0.05837394829958154</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03409048087996358</v>
+        <v>0.02407968828549688</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03409048087996358</v>
+        <v>0.02407968828549688</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06763247788901153</v>
+        <v>0.05183589754079035</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04402805451586531</v>
+        <v>0.05929044740276281</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1143446153255556</v>
+        <v>0.07778945112448427</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04398026942934415</v>
+        <v>0.05928604124176249</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03529293132253264</v>
+        <v>0.02440802165197629</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03529293132253264</v>
+        <v>0.02440802165197629</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07153903808969705</v>
+        <v>0.05068432344317944</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04470540920072476</v>
+        <v>0.06020260813203608</v>
       </c>
       <c r="N131" t="n">
-        <v>0.100744876950123</v>
+        <v>0.07961852318830442</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04465688895902636</v>
+        <v>0.06019813418394346</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0343036921957415</v>
+        <v>0.02404202469876918</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0343036921957415</v>
+        <v>0.02404202469876918</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06770302080167806</v>
+        <v>0.05212749980814849</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04538276388558424</v>
+        <v>0.06111476886130936</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1056107864893376</v>
+        <v>0.07592832875351224</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04533350848870859</v>
+        <v>0.06111022712612442</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03287136127544038</v>
+        <v>0.02518851137507035</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03287136127544038</v>
+        <v>0.02518851137507035</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07473807652256501</v>
+        <v>0.05157602155210522</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0460601185704437</v>
+        <v>0.06202692959058263</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1081142575422662</v>
+        <v>0.07910272546919112</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0460101280183908</v>
+        <v>0.06202232006830538</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03509353789477536</v>
+        <v>0.02544991670073925</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03509353789477536</v>
+        <v>0.02544991670073925</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07310141626001224</v>
+        <v>0.05086244137063797</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04673747325530317</v>
+        <v>0.06293909031985591</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1126609024480787</v>
+        <v>0.07988915937914332</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04668674754807303</v>
+        <v>0.06293441301048634</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03305597082830808</v>
+        <v>0.02553383674966524</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03305597082830808</v>
+        <v>0.02553383674966524</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06941849491892482</v>
+        <v>0.05318849351952287</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04741482794016263</v>
+        <v>0.06385125104912918</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1095507832742285</v>
+        <v>0.07874109160734477</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04736336707775524</v>
+        <v>0.0638465059526673</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03496968542822647</v>
+        <v>0.02556987007912749</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03496968542822647</v>
+        <v>0.02556987007912749</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06845301396593639</v>
+        <v>0.05244961938044304</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0480921826250221</v>
+        <v>0.06476341177840246</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1028124564952438</v>
+        <v>0.08103733091382714</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04803998660743745</v>
+        <v>0.06475859889484827</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03506461268822242</v>
+        <v>0.02555516386382038</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03506461268822242</v>
+        <v>0.02555516386382038</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07221531689794669</v>
+        <v>0.0515089641007144</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04876953730988156</v>
+        <v>0.06567557250767574</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1083521495136648</v>
+        <v>0.07777032319339822</v>
       </c>
       <c r="O137" t="n">
-        <v>0.04871660613711967</v>
+        <v>0.06567069183702923</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03591575365980768</v>
+        <v>0.02572260637660879</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03591575365980768</v>
+        <v>0.02572260637660879</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06823487435478118</v>
+        <v>0.05089466807334656</v>
       </c>
       <c r="M138" t="n">
-        <v>0.04944689199474103</v>
+        <v>0.066587733236949</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1042414153417676</v>
+        <v>0.07605408202701652</v>
       </c>
       <c r="O138" t="n">
-        <v>0.04939322566680189</v>
+        <v>0.06658278477921019</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03580937633329991</v>
+        <v>0.02549769798055454</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03580937633329991</v>
+        <v>0.02549769798055454</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07149238656026577</v>
+        <v>0.05148389090114625</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0501242466796005</v>
+        <v>0.06749989396622227</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1146899462012664</v>
+        <v>0.08045570835693489</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05006984519648411</v>
+        <v>0.06749487772139115</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03416684927482869</v>
+        <v>0.02515255290982846</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03416684927482869</v>
+        <v>0.02515255290982846</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07419892279852164</v>
+        <v>0.05291941430871008</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05080160136445996</v>
+        <v>0.06841205469549555</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1090125601181877</v>
+        <v>0.07698239535324614</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05074646472616633</v>
+        <v>0.06840697066357211</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03404119409603228</v>
+        <v>0.02603727299551729</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03404119409603228</v>
+        <v>0.02603727299551729</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06848663102603628</v>
+        <v>0.05287027009862955</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05147895604931943</v>
+        <v>0.06932421542476883</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1070988209148039</v>
+        <v>0.08227854661063361</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05142308425584854</v>
+        <v>0.06931906360575307</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03406409717127258</v>
+        <v>0.02586512241089864</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03406409717127258</v>
+        <v>0.02586512241089864</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07461473090485887</v>
+        <v>0.05349354129821093</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0521563107341789</v>
+        <v>0.0702363761540421</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1057468908146134</v>
+        <v>0.0771180987308755</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05209970378553076</v>
+        <v>0.07023115654793403</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03549793380036355</v>
+        <v>0.02600760430261638</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03549793380036355</v>
+        <v>0.02600760430261638</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07097462173623759</v>
+        <v>0.05250826817858853</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05283366541903836</v>
+        <v>0.07114853688331538</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1147404398866487</v>
+        <v>0.08228403034893206</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05277632331521298</v>
+        <v>0.071143249490115</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03479982591226959</v>
+        <v>0.02549353803045631</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03479982591226959</v>
+        <v>0.02549353803045631</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07161686374927498</v>
+        <v>0.05415447853242344</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05351102010389783</v>
+        <v>0.07206069761258864</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1113951541572548</v>
+        <v>0.07813734957915253</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05345294284489519</v>
+        <v>0.07205534243229596</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03521549362003448</v>
+        <v>0.02587602798634984</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03521549362003448</v>
+        <v>0.02587602798634984</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07040842208371534</v>
+        <v>0.05074097018186702</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05418837478875729</v>
+        <v>0.07297285834186193</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1029618519651674</v>
+        <v>0.07814787497984166</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05412956237457741</v>
+        <v>0.07296743537447692</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03398304439032752</v>
+        <v>0.02581085555046847</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03398304439032752</v>
+        <v>0.02581085555046847</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07082335649632845</v>
+        <v>0.05359872122173626</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05486572947361677</v>
+        <v>0.07388501907113521</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1129201743020281</v>
+        <v>0.08001468766611908</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05480618190425963</v>
+        <v>0.07387952831665788</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03461440964998684</v>
+        <v>0.02549024061026214</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03461440964998684</v>
+        <v>0.02549024061026214</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07468958045675816</v>
+        <v>0.05276916144134963</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05554308415847622</v>
+        <v>0.07479717980040847</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1090137894853814</v>
+        <v>0.0833745596778207</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05548280143394185</v>
+        <v>0.07479162125883884</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03373970920290793</v>
+        <v>0.0260383461714673</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03373970920290793</v>
+        <v>0.0260383461714673</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07487911980498094</v>
+        <v>0.05535256270653016</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05622043884333569</v>
+        <v>0.07570934052968174</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1100540995701601</v>
+        <v>0.08272153181391506</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05615942096362406</v>
+        <v>0.0757037142010198</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03517676386465085</v>
+        <v>0.02671875413774952</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03517676386465085</v>
+        <v>0.02671875413774952</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07274334512584524</v>
+        <v>0.05313107596471656</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05689779352819516</v>
+        <v>0.07662150125895502</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1082528937141316</v>
+        <v>0.08326208928025486</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05683604049330629</v>
+        <v>0.07661580714320076</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.0256303741570056</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.0256303741570056</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07155522575831502</v>
+        <v>0.05508410412629428</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05757514821305463</v>
+        <v>0.07753366198822829</v>
       </c>
       <c r="N150" t="n">
-        <v>0.102632995049472</v>
+        <v>0.0788905832746612</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05751266002298851</v>
+        <v>0.07752790008538173</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03585570621589411</v>
+        <v>0.02614946296480038</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03585570621589411</v>
+        <v>0.02614946296480038</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07544620059759236</v>
+        <v>0.05248984850891197</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05825250289791409</v>
+        <v>0.07844582271750157</v>
       </c>
       <c r="N151" t="n">
-        <v>0.111720644572279</v>
+        <v>0.08191800946180527</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05818927955267072</v>
+        <v>0.07843999302756269</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03365758228359128</v>
+        <v>0.02638652099120176</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03365758228359128</v>
+        <v>0.02638652099120176</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06812965728823364</v>
+        <v>0.0526808993085032</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05892985758277355</v>
+        <v>0.07935798344677485</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1166339133467552</v>
+        <v>0.08422042347456327</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05886589908235294</v>
+        <v>0.07935208596974365</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0350608328758967</v>
+        <v>0.02638598424563365</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0350608328758967</v>
+        <v>0.02638598424563365</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0724404685354369</v>
+        <v>0.05529686330401648</v>
       </c>
       <c r="M153" t="n">
-        <v>0.05960721226763303</v>
+        <v>0.08027014417604811</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1052645643282535</v>
+        <v>0.08039988192664621</v>
       </c>
       <c r="O153" t="n">
-        <v>0.05954251861203516</v>
+        <v>0.08026417891192461</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03412652992695869</v>
+        <v>0.02617041167488943</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03412652992695869</v>
+        <v>0.02617041167488943</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07145090367039655</v>
+        <v>0.05618918245652013</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06028456695249249</v>
+        <v>0.08118230490532138</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1147481628931354</v>
+        <v>0.08423137875457032</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06021913814171737</v>
+        <v>0.08117627185410557</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03553275892295095</v>
+        <v>0.02681448652427462</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03553275892295095</v>
+        <v>0.02681448652427462</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07121633264302721</v>
+        <v>0.05288106698102202</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06096192163735195</v>
+        <v>0.08209446563459466</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1145394370564231</v>
+        <v>0.07990444173082872</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06089575767139959</v>
+        <v>0.08208836479628653</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03451961883026372</v>
+        <v>0.02681342917124498</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03451961883026372</v>
+        <v>0.02681342917124498</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.05542712273257483</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06163927632221142</v>
+        <v>0.08300662636386794</v>
       </c>
       <c r="N156" t="n">
-        <v>0.111058333588355</v>
+        <v>0.08023790228840055</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06157237720108182</v>
+        <v>0.0830004577384675</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03584769007265877</v>
+        <v>0.02708894235407826</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03584769007265877</v>
+        <v>0.02708894235407826</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06953181415074125</v>
+        <v>0.05640865767888553</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06231663100707089</v>
+        <v>0.08391878709314121</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1145776730155343</v>
+        <v>0.08460836657711901</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06224899673076403</v>
+        <v>0.08391255068064846</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03443874817503005</v>
+        <v>0.02605779310454955</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03443874817503005</v>
+        <v>0.02605779310454955</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06953105008968516</v>
+        <v>0.05454887360290803</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06299398569193035</v>
+        <v>0.08483094782241447</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1024907017239152</v>
+        <v>0.08627994466515188</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06292561626044624</v>
+        <v>0.08482464362282942</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03465839000301459</v>
+        <v>0.02718604806093146</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03465839000301459</v>
+        <v>0.02718604806093146</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06882415577902498</v>
+        <v>0.05467526869143</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06367134037678981</v>
+        <v>0.08574310855168776</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1076749157548753</v>
+        <v>0.08300691476507821</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06360223579012846</v>
+        <v>0.08573673656501038</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03618580429001629</v>
+        <v>0.02745362891765689</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03618580429001629</v>
+        <v>0.02745362891765689</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07279582536172746</v>
+        <v>0.05534942566429127</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06434869506164929</v>
+        <v>0.08665526928096104</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1061537565981328</v>
+        <v>0.08517819826074685</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06427885531981069</v>
+        <v>0.08664882950719134</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03466226365596436</v>
+        <v>0.02671989452360765</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03466226365596436</v>
+        <v>0.02671989452360765</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06953475541442919</v>
+        <v>0.05749641958536331</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06502604974650876</v>
+        <v>0.0875674300102343</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1125866245069269</v>
+        <v>0.08122914243585033</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06495547484949289</v>
+        <v>0.0875609224493723</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03393132958396254</v>
+        <v>0.02636993311110382</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03393132958396254</v>
+        <v>0.02636993311110382</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06843963243932003</v>
+        <v>0.05731545321152742</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06570340443136821</v>
+        <v>0.08847959073950758</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1045927308706681</v>
+        <v>0.08671719586972815</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06563209437917511</v>
+        <v>0.08847301539155326</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03578361124613837</v>
+        <v>0.02733935565870967</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03578361124613837</v>
+        <v>0.02733935565870967</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06883954483871335</v>
+        <v>0.0553986998002084</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06638075911622769</v>
+        <v>0.08939175146878085</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1115732201168058</v>
+        <v>0.08591100537410656</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06630871390885734</v>
+        <v>0.08938510833373423</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0356806900921801</v>
+        <v>0.02749879653906379</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0356806900921801</v>
+        <v>0.02749879653906379</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06727994279931915</v>
+        <v>0.05399215197403875</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06705811380108716</v>
+        <v>0.09030391219805413</v>
       </c>
       <c r="N164" t="n">
-        <v>0.108995327623254</v>
+        <v>0.08255563847099451</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06698533343853956</v>
+        <v>0.09029720127591519</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03545828053003212</v>
+        <v>0.02686914024012167</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03545828053003212</v>
+        <v>0.02686914024012167</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06821635473064105</v>
+        <v>0.05399830378425702</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06773546848594662</v>
+        <v>0.0912160729273274</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1045423542171849</v>
+        <v>0.08801812901831407</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06766195296822176</v>
+        <v>0.09120929421809615</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03332134658152151</v>
+        <v>0.02702651573791726</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03332134658152151</v>
+        <v>0.02702651573791726</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07520686288536479</v>
+        <v>0.05704439779830009</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06841282317080608</v>
+        <v>0.09212823365660068</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1039380803812778</v>
+        <v>0.08827784181980503</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06833857249790398</v>
+        <v>0.09212138716027711</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03329747861947042</v>
+        <v>0.02741213634440602</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03329747861947042</v>
+        <v>0.02741213634440602</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07365989097576917</v>
+        <v>0.05497075910338114</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06909017785566555</v>
+        <v>0.09304039438587394</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1117342427724224</v>
+        <v>0.08548974348109134</v>
       </c>
       <c r="O167" t="n">
-        <v>0.06901519202758621</v>
+        <v>0.09303348010245807</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03584113761588903</v>
+        <v>0.02682555664321289</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03584113761588903</v>
+        <v>0.02682555664321289</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06991422781561291</v>
+        <v>0.05573116352989385</v>
       </c>
       <c r="M168" t="n">
-        <v>0.06976753254052502</v>
+        <v>0.09395255511514723</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1018834872590471</v>
+        <v>0.08656015098017683</v>
       </c>
       <c r="O168" t="n">
-        <v>0.06969181155726842</v>
+        <v>0.09394557304463903</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03345173798254568</v>
+        <v>0.02736441456439934</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03345173798254568</v>
+        <v>0.02736441456439934</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07017799251383325</v>
+        <v>0.05732758279136368</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07044488722538449</v>
+        <v>0.09486471584442051</v>
       </c>
       <c r="N169" t="n">
-        <v>0.104638620426881</v>
+        <v>0.08614739771619062</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07036843108695064</v>
+        <v>0.09485766598681999</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03293937470127728</v>
+        <v>0.02758640452815572</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03293937470127728</v>
+        <v>0.02758640452815572</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07122121055244787</v>
+        <v>0.05554815977758096</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07112224191024395</v>
+        <v>0.09577687657369377</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1105179463503699</v>
+        <v>0.0881571157134946</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07104505061663287</v>
+        <v>0.09576975892900096</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03279589935391332</v>
+        <v>0.02804881946396547</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03279589935391332</v>
+        <v>0.02804881946396547</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07015820126625405</v>
+        <v>0.05848611075258206</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07179959659510342</v>
+        <v>0.09668903730296705</v>
       </c>
       <c r="N171" t="n">
-        <v>0.107431374885236</v>
+        <v>0.08401074093498484</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07172167014631507</v>
+        <v>0.09668185187118192</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03324572885655674</v>
+        <v>0.02747611625232586</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03324572885655674</v>
+        <v>0.02747611625232586</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07013413262112511</v>
+        <v>0.05756007531788071</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07247695127996288</v>
+        <v>0.09760119803224032</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1008061789521753</v>
+        <v>0.08834418476059652</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07239828967599729</v>
+        <v>0.09759394481336288</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03276195558878547</v>
+        <v>0.02758809298651681</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03276195558878547</v>
+        <v>0.02758809298651681</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07268574280312995</v>
+        <v>0.05582653992464895</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07315430596482235</v>
+        <v>0.0985133587615136</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1038861236755844</v>
+        <v>0.08777497462707184</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07307490920567951</v>
+        <v>0.09850603775554384</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0356851628129521</v>
+        <v>0.02807810683220244</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0356851628129521</v>
+        <v>0.02807810683220244</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07066063257267433</v>
+        <v>0.05650803396495777</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07383166064968182</v>
+        <v>0.09942551949078687</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1143986057969267</v>
+        <v>0.08570645310912617</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07375152873536173</v>
+        <v>0.0994181306977248</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03468959316295496</v>
+        <v>0.02849934689958748</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03468959316295496</v>
+        <v>0.02849934689958748</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07355696041682899</v>
+        <v>0.0587606967194752</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07450901533454128</v>
+        <v>0.1003376802200601</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1125925024301954</v>
+        <v>0.08771671987116303</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07442814826504394</v>
+        <v>0.1003302236399058</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03399888531417188</v>
+        <v>0.02782710338733554</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03399888531417188</v>
+        <v>0.02782710338733554</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07456617136056198</v>
+        <v>0.05976550544303735</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07518637001940075</v>
+        <v>0.1012498409493334</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1139810194708656</v>
+        <v>0.08902295567572427</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07510476779472616</v>
+        <v>0.1012423165820867</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03368816077326985</v>
+        <v>0.02805017535227443</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03368816077326985</v>
+        <v>0.02805017535227443</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0687075610693649</v>
+        <v>0.05917110936689154</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07586372470426021</v>
+        <v>0.1021620016786067</v>
       </c>
       <c r="N177" t="n">
-        <v>0.101804620327788</v>
+        <v>0.08526073256221239</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07578138732440838</v>
+        <v>0.1021544095242677</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03556461623353799</v>
+        <v>0.02799959370112719</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03556461623353799</v>
+        <v>0.02799959370112719</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0693265821781808</v>
+        <v>0.05770864190752709</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07654107938911968</v>
+        <v>0.10307416240788</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1006521330685176</v>
+        <v>0.08541358072432903</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0764580068540906</v>
+        <v>0.1030665024664486</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03502307697561546</v>
+        <v>0.02746888974504533</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03502307697561546</v>
+        <v>0.02746888974504533</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06813479569254549</v>
+        <v>0.05871371572797357</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07721843407397914</v>
+        <v>0.1039863231371532</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1045581602409598</v>
+        <v>0.08917090645877529</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07713462638377282</v>
+        <v>0.1039785954086296</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03309928294266778</v>
+        <v>0.0277138320108697</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03309928294266778</v>
+        <v>0.0277138320108697</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07047486976036454</v>
+        <v>0.06067465337739347</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07789578875883861</v>
+        <v>0.1048984838664265</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1006506413528431</v>
+        <v>0.08600578161442041</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07781124591345503</v>
+        <v>0.1048906883508106</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03413679336626345</v>
+        <v>0.02872874310019276</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03413679336626345</v>
+        <v>0.02872874310019276</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07197095046082583</v>
+        <v>0.05937278702825899</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07857314344369808</v>
+        <v>0.1058106445956998</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1011992382436239</v>
+        <v>0.08870187262656459</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07848786544313725</v>
+        <v>0.1058027812929915</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03243669283100256</v>
+        <v>0.02871916246726343</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03243669283100256</v>
+        <v>0.02871916246726343</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06635187423767738</v>
+        <v>0.05872613155312686</v>
       </c>
       <c r="M182" t="n">
-        <v>0.07925049812855754</v>
+        <v>0.1067228053249731</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1137202595870883</v>
+        <v>0.0877123995339939</v>
       </c>
       <c r="O182" t="n">
-        <v>0.07916448497281947</v>
+        <v>0.1067148742351725</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03427112953560471</v>
+        <v>0.02930934417186055</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03427112953560471</v>
+        <v>0.02930934417186055</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06652353851476087</v>
+        <v>0.05952479935596225</v>
       </c>
       <c r="M183" t="n">
-        <v>0.07992785281341701</v>
+        <v>0.1076349660542463</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1010364916154307</v>
+        <v>0.0914087060750427</v>
       </c>
       <c r="O183" t="n">
-        <v>0.07984110450250169</v>
+        <v>0.1076269671773534</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03503869425069911</v>
+        <v>0.02861043903346742</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03503869425069911</v>
+        <v>0.02861043903346742</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06679689631044031</v>
+        <v>0.05870578426652007</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08060520749827647</v>
+        <v>0.1085471267835196</v>
       </c>
       <c r="N184" t="n">
-        <v>0.103149116526999</v>
+        <v>0.08806930741383096</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08051772403218389</v>
+        <v>0.1085390601195344</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03512115649879993</v>
+        <v>0.02873142791117879</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03512115649879993</v>
+        <v>0.02873142791117879</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07475221508173729</v>
+        <v>0.05929819590221463</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08128256218313594</v>
+        <v>0.1094592875127929</v>
       </c>
       <c r="N185" t="n">
-        <v>0.109237443068557</v>
+        <v>0.09202295598677918</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08119434356186613</v>
+        <v>0.1094511530617154</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03376027725533373</v>
+        <v>0.02940669712616453</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03376027725533373</v>
+        <v>0.02940669712616453</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07344075338228204</v>
+        <v>0.05769289907372926</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08195991686799541</v>
+        <v>0.1103714482420662</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1118910276010724</v>
+        <v>0.08984635103990984</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08187096309154834</v>
+        <v>0.1103632460038963</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03296153850658981</v>
+        <v>0.0286196951903942</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03296153850658981</v>
+        <v>0.0286196951903942</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07235461737902052</v>
+        <v>0.05765373869874807</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08263727155285487</v>
+        <v>0.1112836089713394</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1060727547936831</v>
+        <v>0.09380960630868962</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08254758262123056</v>
+        <v>0.1112753389460773</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0325084876502198</v>
+        <v>0.02883782542449033</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0325084876502198</v>
+        <v>0.02883782542449033</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07207358473689598</v>
+        <v>0.06060140403940542</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08331462623771435</v>
+        <v>0.1121957697006127</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1005778065855308</v>
+        <v>0.09073472604166749</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08322420215091278</v>
+        <v>0.1121874318882583</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03275945161744886</v>
+        <v>0.02986287350482308</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03275945161744886</v>
+        <v>0.02986287350482308</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06707240793005706</v>
+        <v>0.05851545079503742</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0839919809225738</v>
+        <v>0.113107930429886</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1063913530646977</v>
+        <v>0.09322548673229869</v>
       </c>
       <c r="O189" t="n">
-        <v>0.083900821680595</v>
+        <v>0.1130995248304392</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03488246076113498</v>
+        <v>0.0292006072124753</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03488246076113498</v>
+        <v>0.0292006072124753</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07231490417700157</v>
+        <v>0.06081522409527268</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08466933560743327</v>
+        <v>0.1140200911591592</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1125937637444928</v>
+        <v>0.08775315551639101</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08457744121027722</v>
+        <v>0.1140116177726202</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03255587418542216</v>
+        <v>0.02890171891571469</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03255587418542216</v>
+        <v>0.02890171891571469</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06665868493612265</v>
+        <v>0.05828550136728344</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08534669029229273</v>
+        <v>0.1149322518884325</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1080880191066639</v>
+        <v>0.09294863233956069</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08525406073995942</v>
+        <v>0.1149237107148012</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03263435329419924</v>
+        <v>0.02894178225234779</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03263435329419924</v>
+        <v>0.02894178225234779</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06951905257801175</v>
+        <v>0.05834128514523185</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08602404497715221</v>
+        <v>0.1158444126177058</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1044459184348004</v>
+        <v>0.09021661335160785</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08593068026964165</v>
+        <v>0.1158358036569821</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03309129874185834</v>
+        <v>0.02968260703419875</v>
       </c>
       <c r="G193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03309129874185834</v>
+        <v>0.02968260703419875</v>
       </c>
       <c r="K193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07241545153670415</v>
+        <v>0.05797083569429134</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08670139966201167</v>
+        <v>0.1167565733469791</v>
       </c>
       <c r="N193" t="n">
-        <v>0.107730625553946</v>
+        <v>0.09106910679622821</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08660729979932387</v>
+        <v>0.1167478965991631</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03488006453264038</v>
+        <v>0.02977430650983684</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03488006453264038</v>
+        <v>0.02977430650983684</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06665660159498038</v>
+        <v>0.06002885540523289</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08737875434687113</v>
+        <v>0.1176687340762524</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1151845687574702</v>
+        <v>0.09380513681495772</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08728391932900607</v>
+        <v>0.117659989541344</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03584596009991471</v>
+        <v>0.02920779891483022</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03584596009991471</v>
+        <v>0.02920779891483022</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07327804478566816</v>
+        <v>0.06195325653015415</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08805610903173061</v>
+        <v>0.1185808948055256</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1117579428272585</v>
+        <v>0.09366678552493335</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08796053885868831</v>
+        <v>0.118572082483525</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03540842824260566</v>
+        <v>0.02895456621541345</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03540842824260566</v>
+        <v>0.02895456621541345</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06808804153165685</v>
+        <v>0.06269384345969534</v>
       </c>
       <c r="M196" t="n">
-        <v>0.08873346371659008</v>
+        <v>0.1194930555347989</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1080555853370671</v>
+        <v>0.09438528136996061</v>
       </c>
       <c r="O196" t="n">
-        <v>0.08863715838837052</v>
+        <v>0.119484175425706</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03583477050583891</v>
+        <v>0.02923678922077923</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03583477050583891</v>
+        <v>0.02923678922077923</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07111050780647457</v>
+        <v>0.0603555656589716</v>
       </c>
       <c r="M197" t="n">
-        <v>0.08941081840144953</v>
+        <v>0.1204052162640722</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1073577239719574</v>
+        <v>0.09310824824132646</v>
       </c>
       <c r="O197" t="n">
-        <v>0.08931377791805273</v>
+        <v>0.1203962683678869</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03594505711206215</v>
+        <v>0.03028091390040133</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03594505711206215</v>
+        <v>0.03028091390040133</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0726637795474053</v>
+        <v>0.06301370142783252</v>
       </c>
       <c r="M198" t="n">
-        <v>0.090088173086309</v>
+        <v>0.1213173769933454</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1138032803910594</v>
+        <v>0.09052303518389604</v>
       </c>
       <c r="O198" t="n">
-        <v>0.08999039744773495</v>
+        <v>0.1213083613100679</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03569468812831413</v>
+        <v>0.02922201551902721</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03569468812831413</v>
+        <v>0.02922201551902721</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07503897771381079</v>
+        <v>0.05944728309015634</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09076552777116847</v>
+        <v>0.1222295377226187</v>
       </c>
       <c r="N199" t="n">
-        <v>0.105316705801706</v>
+        <v>0.09297202909151675</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09066701697741718</v>
+        <v>0.1222204542522488</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0350171000573954</v>
+        <v>0.03032017830185392</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0350171000573954</v>
+        <v>0.03032017830185392</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07075537043907307</v>
+        <v>0.06025142354419905</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09144288245602794</v>
+        <v>0.123141698451892</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1094180425337573</v>
+        <v>0.09418969080865741</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09134363650709938</v>
+        <v>0.1231325471944298</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03383489826116208</v>
+        <v>0.03053603534921405</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03383489826116208</v>
+        <v>0.03053603534921405</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0754903075782786</v>
+        <v>0.05962780885488111</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09212023714088739</v>
+        <v>0.1240538591811653</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1025388257893846</v>
+        <v>0.09400391926856633</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0920202560367816</v>
+        <v>0.1240446401366108</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03571151233924758</v>
+        <v>0.03018785921685502</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03571151233924758</v>
+        <v>0.03018785921685502</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07655114596590404</v>
+        <v>0.0603851824618333</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09279759182574687</v>
+        <v>0.1249660199104385</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1113204548609985</v>
+        <v>0.09284825843746858</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09269687556646383</v>
+        <v>0.1249567330787917</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03500156354220499</v>
+        <v>0.02935814801819268</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03500156354220499</v>
+        <v>0.02935814801819268</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07357277803077242</v>
+        <v>0.06366610374723614</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09347494651060634</v>
+        <v>0.1258781806397118</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1084665164301447</v>
+        <v>0.09483984159725778</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09337349509614605</v>
+        <v>0.1258688260209727</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03442318440146035</v>
+        <v>0.03004410700801442</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03442318440146035</v>
+        <v>0.03004410700801442</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07318432549672763</v>
+        <v>0.06353852198719284</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0941523011954658</v>
+        <v>0.1267903413689851</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1082577257426144</v>
+        <v>0.09429213434756506</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09405011462582825</v>
+        <v>0.1267809189631536</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0345035875553026</v>
+        <v>0.02947815479432461</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0345035875553026</v>
+        <v>0.02947815479432461</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07336482719291129</v>
+        <v>0.06248908752833102</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09482965588032526</v>
+        <v>0.1277025020982584</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1148267743149519</v>
+        <v>0.09358235629633693</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09472673415551047</v>
+        <v>0.1276930119053346</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03636821101838969</v>
+        <v>0.03068343141715905</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03636821101838969</v>
+        <v>0.03068343141715905</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07718038901170104</v>
+        <v>0.05998643166123421</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09550701056518474</v>
+        <v>0.1286146628275316</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1149936639303922</v>
+        <v>0.09793645861339284</v>
       </c>
       <c r="O206" t="n">
-        <v>0.0954033536851927</v>
+        <v>0.1286051048475156</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03659793477493181</v>
+        <v>0.03025055626118339</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03659793477493181</v>
+        <v>0.03025055626118339</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07254091058460821</v>
+        <v>0.06258471698828608</v>
       </c>
       <c r="M207" t="n">
-        <v>0.0961843652500442</v>
+        <v>0.1295268235568049</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1096526093686363</v>
+        <v>0.09225538221798091</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09607997321487491</v>
+        <v>0.1295171977896965</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03683154209456883</v>
+        <v>0.03032996318849773</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03683154209456883</v>
+        <v>0.03032996318849773</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07426622439869832</v>
+        <v>0.06186427011316581</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09686171993490367</v>
+        <v>0.1304389842860782</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1072978473648002</v>
+        <v>0.09550373151261127</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09675659274455713</v>
+        <v>0.1304292907318775</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03598933848072353</v>
+        <v>0.0307685479863611</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03598933848072353</v>
+        <v>0.0307685479863611</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07027329256156187</v>
+        <v>0.06108563320157084</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09753907461976312</v>
+        <v>0.1313511450153515</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1091918885473833</v>
+        <v>0.09415603314049259</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09743321227423934</v>
+        <v>0.1313413836740585</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03686692615059778</v>
+        <v>0.03035292131786657</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03686692615059778</v>
+        <v>0.03035292131786657</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07283751389087212</v>
+        <v>0.06153152765315098</v>
       </c>
       <c r="M210" t="n">
-        <v>0.0982164293046226</v>
+        <v>0.1322633057446247</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1085689043812051</v>
+        <v>0.09583994323965145</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09810983180392156</v>
+        <v>0.1322534766162394</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03579229456609385</v>
+        <v>0.03030657583540597</v>
       </c>
       <c r="G211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03579229456609385</v>
+        <v>0.03030657583540597</v>
       </c>
       <c r="K211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07652609699569263</v>
+        <v>0.06368068479969899</v>
       </c>
       <c r="M211" t="n">
-        <v>0.09889378398948206</v>
+        <v>0.133175466473898</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1165882853807278</v>
+        <v>0.09328706444525947</v>
       </c>
       <c r="O211" t="n">
-        <v>0.09878645133360378</v>
+        <v>0.1331655695584204</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03549397156556698</v>
+        <v>0.03074832015599549</v>
       </c>
       <c r="G212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03549397156556698</v>
+        <v>0.03074832015599549</v>
       </c>
       <c r="K212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07717433959234529</v>
+        <v>0.06405060787306177</v>
       </c>
       <c r="M212" t="n">
-        <v>0.09957113867434153</v>
+        <v>0.1340876272031713</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1165158968807562</v>
+        <v>0.09681184377987956</v>
       </c>
       <c r="O212" t="n">
-        <v>0.099463070863286</v>
+        <v>0.1340776625006013</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03433749276685727</v>
+        <v>0.03137171697610736</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03433749276685727</v>
+        <v>0.03137171697610736</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0761646745836867</v>
+        <v>0.06289220513947993</v>
       </c>
       <c r="M213" t="n">
-        <v>0.100248493359201</v>
+        <v>0.1349997879324445</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1123319995175203</v>
+        <v>0.09687568924278317</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1001396903929682</v>
+        <v>0.1349897554427823</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03502551377182415</v>
+        <v>0.03012984299197326</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03502551377182415</v>
+        <v>0.03012984299197326</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07579944782295855</v>
+        <v>0.06413629415032882</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1009258480440605</v>
+        <v>0.1359119486617178</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1047443030069479</v>
+        <v>0.09606293777379804</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1008163099226504</v>
+        <v>0.1359018483849633</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03410010930739045</v>
+        <v>0.0304829811990209</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03410010930739045</v>
+        <v>0.0304829811990209</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0730072395401036</v>
+        <v>0.06247043410064665</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1016032027289199</v>
+        <v>0.1368241093909911</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1062856421263891</v>
+        <v>0.0965979140784195</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1014929294523327</v>
+        <v>0.1368139413271442</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03496625307039439</v>
+        <v>0.03163767216096738</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03496625307039439</v>
+        <v>0.03163767216096738</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07199567654478289</v>
+        <v>0.06247314385345551</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1022805574137794</v>
+        <v>0.1377362701202644</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1052037176128982</v>
+        <v>0.09916859978902359</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1021695489820149</v>
+        <v>0.1377260342693252</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03481768392257281</v>
+        <v>0.03151026195209031</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03481768392257281</v>
+        <v>0.03151026195209031</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07183456988766823</v>
+        <v>0.0646917633784195</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1029579120986389</v>
+        <v>0.1386484308495377</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1115214236746749</v>
+        <v>0.09852673004246804</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1028461685116971</v>
+        <v>0.1386381272115061</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03668301797322514</v>
+        <v>0.03150831004912026</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03668301797322514</v>
+        <v>0.03150831004912026</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07343163581298984</v>
+        <v>0.06435188376321554</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1036352667834983</v>
+        <v>0.1395605915788109</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1127099990472833</v>
+        <v>0.09995403563226718</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1035227880413793</v>
+        <v>0.1395502201536871</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03508815808129723</v>
+        <v>0.03174397817524133</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03508815808129723</v>
+        <v>0.03174397817524133</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07307867465231771</v>
+        <v>0.06583757429893164</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1043126214683578</v>
+        <v>0.1404727523080842</v>
       </c>
       <c r="N219" t="n">
-        <v>0.115692618250358</v>
+        <v>0.0947465040650336</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1041994075710615</v>
+        <v>0.1404623130958681</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03548757573467236</v>
+        <v>0.03092268080832354</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03548757573467236</v>
+        <v>0.03092268080832354</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06865352752261167</v>
+        <v>0.06516043160869334</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1049899761532173</v>
+        <v>0.1413849130373575</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1171642372312447</v>
+        <v>0.09858494850309651</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1048760271007437</v>
+        <v>0.141374406038049</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03482913136709564</v>
+        <v>0.0317709862349831</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03482913136709564</v>
+        <v>0.0317709862349831</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07023486685228503</v>
+        <v>0.06687024884964263</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1056673308380767</v>
+        <v>0.1422970737666308</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1161862617401861</v>
+        <v>0.09671610754756438</v>
       </c>
       <c r="O221" t="n">
-        <v>0.105552646630426</v>
+        <v>0.14228649898023</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0364306169562405</v>
+        <v>0.03180064689659649</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0364306169562405</v>
+        <v>0.03180064689659649</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06997430340369892</v>
+        <v>0.06307329947395401</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1063446855229362</v>
+        <v>0.143209234495904</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1045075344848375</v>
+        <v>0.100221776805726</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1062292661601082</v>
+        <v>0.1431985919224109</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03464522113772257</v>
+        <v>0.03176872124637133</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03464522113772257</v>
+        <v>0.03176872124637133</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07713395720126021</v>
+        <v>0.06485623066303714</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1070220402077957</v>
+        <v>0.1441213952251773</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1041828138182712</v>
+        <v>0.1015765270027434</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1069058856897904</v>
+        <v>0.1441106848645919</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03381402231193387</v>
+        <v>0.03101904158352728</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03381402231193387</v>
+        <v>0.03101904158352728</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06828159238199283</v>
+        <v>0.06286142461420605</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1076993948926551</v>
+        <v>0.1450335559544506</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1079384600934639</v>
+        <v>0.1011582481306815</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1075825052194726</v>
+        <v>0.1450227778067729</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03360333574912421</v>
+        <v>0.03102124029306008</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03360333574912421</v>
+        <v>0.03102124029306008</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07307292775521285</v>
+        <v>0.06534284124931419</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1083767495775146</v>
+        <v>0.1459457166837239</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1047854839455453</v>
+        <v>0.1013024584651182</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1082591247491548</v>
+        <v>0.1459348707489538</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03594460069924461</v>
+        <v>0.03272491887529061</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03594460069924461</v>
+        <v>0.03272491887529061</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07410962158808274</v>
+        <v>0.06528571593782201</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1090541042623741</v>
+        <v>0.1468578774129971</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1027753948969164</v>
+        <v>0.09676030553203385</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1089357442788371</v>
+        <v>0.1468469636911348</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03351953815925661</v>
+        <v>0.03206098353131083</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03351953815925661</v>
+        <v>0.03206098353131083</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0752296585041354</v>
+        <v>0.06604330610365272</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1097314589472335</v>
+        <v>0.1477700381422704</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1092912067171666</v>
+        <v>0.100203213425447</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1096123638085193</v>
+        <v>0.1477590566333158</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03569183769920055</v>
+        <v>0.03186336803051466</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03569183769920055</v>
+        <v>0.03186336803051466</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07551715474393439</v>
+        <v>0.06606651654121987</v>
       </c>
       <c r="M228" t="n">
-        <v>0.110408813632093</v>
+        <v>0.1486821988715437</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1051059845031749</v>
+        <v>0.09625900037544777</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1102889833382015</v>
+        <v>0.1486711495754967</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03309546788521585</v>
+        <v>0.03191826873609691</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03309546788521585</v>
+        <v>0.03191826873609691</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07309227630156195</v>
+        <v>0.06815318183890359</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1110861683169524</v>
+        <v>0.1495943596008169</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1033301443205492</v>
+        <v>0.09880804065108784</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1109656028678837</v>
+        <v>0.1495832425176777</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03471484028006148</v>
+        <v>0.03190329415722408</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03471484028006148</v>
+        <v>0.03190329415722408</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07442352175707995</v>
+        <v>0.06649659319485465</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1117635230018119</v>
+        <v>0.1505065203300902</v>
       </c>
       <c r="N230" t="n">
-        <v>0.104244644919064</v>
+        <v>0.0978297826132713</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1116422223975659</v>
+        <v>0.1504953354598586</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0352629442857592</v>
+        <v>0.03234262150913185</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0352629442857592</v>
+        <v>0.03234262150913185</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06757971767346063</v>
+        <v>0.06810791550303946</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1124408776866714</v>
+        <v>0.1514186810593635</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1148839419421885</v>
+        <v>0.1012508270991754</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1123188419272481</v>
+        <v>0.1514074284020396</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03586075642077249</v>
+        <v>0.03248937940497534</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03586075642077249</v>
+        <v>0.03248937940497534</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07111357343393079</v>
+        <v>0.06549578214448912</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1131182323715308</v>
+        <v>0.1523308417886368</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1063420159264838</v>
+        <v>0.1022681462749994</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1129954614569303</v>
+        <v>0.1523195213442206</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0353385047377741</v>
+        <v>0.03205538622455062</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0353385047377741</v>
+        <v>0.03205538622455062</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06823329546961576</v>
+        <v>0.06766864113752818</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1137955870563903</v>
+        <v>0.15324300251791</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1064565759358036</v>
+        <v>0.1047521008809639</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1136720809866126</v>
+        <v>0.1532316142864015</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03553927462605909</v>
+        <v>0.03200049255290975</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03553927462605909</v>
+        <v>0.03200049255290975</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06773202073059192</v>
+        <v>0.06770544435190495</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1144729417412498</v>
+        <v>0.1541551632471833</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1094675749041922</v>
+        <v>0.1005309712514207</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1143487005162948</v>
+        <v>0.1541437072285825</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0348813745133784</v>
+        <v>0.03306306757199114</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0348813745133784</v>
+        <v>0.03306306757199114</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06793313380474722</v>
+        <v>0.06633675870516678</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1151502964261093</v>
+        <v>0.1550673239764566</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1133976345358313</v>
+        <v>0.1019248539664559</v>
       </c>
       <c r="O235" t="n">
-        <v>0.115025320045977</v>
+        <v>0.1550558001707635</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03570953779986813</v>
+        <v>0.03316828236837849</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03570953779986813</v>
+        <v>0.03316828236837849</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07292056009862163</v>
+        <v>0.066762701595523</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1158276511109687</v>
+        <v>0.1559794847057299</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1075053531278541</v>
+        <v>0.099761023994419</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1157019395756592</v>
+        <v>0.1559678931129444</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03430795108236681</v>
+        <v>0.03217689860789127</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03430795108236681</v>
+        <v>0.03217689860789127</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07314951220750232</v>
+        <v>0.06762063137936006</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1165050057958282</v>
+        <v>0.1568916454350031</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1017043355033276</v>
+        <v>0.1025893448210262</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1163785591053414</v>
+        <v>0.1568799860551254</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03318565204676262</v>
+        <v>0.03315906770152012</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03318565204676262</v>
+        <v>0.03315906770152012</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06753312076024023</v>
+        <v>0.06973283261681332</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1171823604806876</v>
+        <v>0.1578038061642764</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1120401714837523</v>
+        <v>0.103268276309363</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1170551786350237</v>
+        <v>0.1577920789973064</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03435656840872323</v>
+        <v>0.03259859988783712</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03435656840872323</v>
+        <v>0.03259859988783712</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07133238489353122</v>
+        <v>0.06642047679286869</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1178597151655471</v>
+        <v>0.1587159668935497</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1118693210959718</v>
+        <v>0.103395635858347</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1177317981647059</v>
+        <v>0.1587041719394873</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03333747652874733</v>
+        <v>0.03342476068066023</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03333747652874733</v>
+        <v>0.03342476068066023</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06991088282779362</v>
+        <v>0.06655679999701641</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1185370698504066</v>
+        <v>0.159628127622823</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1092921517622503</v>
+        <v>0.09965500692569912</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1184084176943881</v>
+        <v>0.1596162648816683</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03483582703509167</v>
+        <v>0.03244822967690662</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03483582703509167</v>
+        <v>0.03244822967690662</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06874597604062549</v>
+        <v>0.06851809031849457</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1192144245352661</v>
+        <v>0.1605402883520962</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1039044667056339</v>
+        <v>0.1016224386224964</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1190850372240703</v>
+        <v>0.1605283578238492</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03539928348165526</v>
+        <v>0.03274231846887085</v>
       </c>
       <c r="G242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03539928348165526</v>
+        <v>0.03274231846887085</v>
       </c>
       <c r="K242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07418782072052083</v>
+        <v>0.06650406627078409</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1198917792201255</v>
+        <v>0.1614524490813695</v>
       </c>
       <c r="N242" t="n">
-        <v>0.105244047358555</v>
+        <v>0.1005165223396839</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1197616567537525</v>
+        <v>0.1614404507660302</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03538834241941918</v>
+        <v>0.03215416926795535</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03538834241941918</v>
+        <v>0.03215416926795535</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07284459563392315</v>
+        <v>0.0666296181574198</v>
       </c>
       <c r="M243" t="n">
-        <v>0.120569133904985</v>
+        <v>0.1623646098106428</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1043648616925389</v>
+        <v>0.102664297855544</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1204382762834347</v>
+        <v>0.1623525437082111</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03437007479034471</v>
+        <v>0.03354902162758176</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03437007479034471</v>
+        <v>0.03354902162758176</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0676176979843153</v>
+        <v>0.06933707955736618</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1212464885898444</v>
+        <v>0.163276770539916</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1126077043345201</v>
+        <v>0.1065816167918566</v>
       </c>
       <c r="O244" t="n">
-        <v>0.121114895813117</v>
+        <v>0.1632646366503921</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03292925713223219</v>
+        <v>0.03383655696447226</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03292925713223219</v>
+        <v>0.03383655696447226</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07243095078462888</v>
+        <v>0.07022163466757853</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1219238432747039</v>
+        <v>0.1641889312691893</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1077084630049997</v>
+        <v>0.1054913204776399</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1217915153427992</v>
+        <v>0.1641767295925731</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03520647618633634</v>
+        <v>0.03381545979420308</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03520647618633634</v>
+        <v>0.03381545979420308</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07488974312738889</v>
+        <v>0.07025947399136714</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1226011979595634</v>
+        <v>0.1651010919984626</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1032408574746593</v>
+        <v>0.1053209046139328</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1224681348724814</v>
+        <v>0.165088822534754</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03318004908416083</v>
+        <v>0.03281508800402935</v>
       </c>
       <c r="G247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03318004908416083</v>
+        <v>0.03281508800402935</v>
       </c>
       <c r="K247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07228135124778837</v>
+        <v>0.06720668816605652</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1232785526444228</v>
+        <v>0.1660132527277359</v>
       </c>
       <c r="N247" t="n">
-        <v>0.113384402980652</v>
+        <v>0.10612416888506</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1231447544021636</v>
+        <v>0.166000915476935</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03517997923119995</v>
+        <v>0.03422376275153023</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03517997923119995</v>
+        <v>0.03422376275153023</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07087391500477777</v>
+        <v>0.0706679310181966</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1239559073292823</v>
+        <v>0.1669254134570091</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1131024444745489</v>
+        <v>0.1085036581635507</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1238213739318458</v>
+        <v>0.1669130084191159</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0355401528841038</v>
+        <v>0.03385844277556199</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0355401528841038</v>
+        <v>0.03385844277556199</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06882146403457062</v>
+        <v>0.07066682318550355</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1246332620141418</v>
+        <v>0.1678375741862824</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1095416142907952</v>
+        <v>0.1071153290433443</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1244979934615281</v>
+        <v>0.1678251013612969</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03417803643492756</v>
+        <v>0.03381967578690055</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03417803643492756</v>
+        <v>0.03381967578690055</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07374284258743213</v>
+        <v>0.07011372100442728</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1253106166990012</v>
+        <v>0.1687497349155557</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1041257896396324</v>
+        <v>0.1085192710160234</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1251746129912103</v>
+        <v>0.1687371943034779</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03311165961485496</v>
+        <v>0.03300937686468935</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03311165961485496</v>
+        <v>0.03300937686468935</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06663724434453144</v>
+        <v>0.06810032495661703</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1259879713838607</v>
+        <v>0.1696618956448289</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1064152237320093</v>
+        <v>0.1019794471008666</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1258512325208925</v>
+        <v>0.1696492872456588</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03578473773306903</v>
+        <v>0.03345671925513508</v>
       </c>
       <c r="G252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03578473773306903</v>
+        <v>0.03345671925513508</v>
       </c>
       <c r="K252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07409378376868037</v>
+        <v>0.06989332215307295</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1266653260687202</v>
+        <v>0.1705740563741023</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1125804103285285</v>
+        <v>0.1062206820701427</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1265278520505747</v>
+        <v>0.1705613801878398</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03464473793413228</v>
+        <v>0.03439149131781366</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03464473793413228</v>
+        <v>0.03439149131781366</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06832141753177859</v>
+        <v>0.06990450061365239</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1273426807535796</v>
+        <v>0.1714862171033755</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1060837240782391</v>
+        <v>0.1060663249322438</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1272044715802569</v>
+        <v>0.1714734731300208</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03471436437948408</v>
+        <v>0.03358969046690201</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03471436437948408</v>
+        <v>0.03358969046690201</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07002720313596048</v>
+        <v>0.06949447679430598</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1280200354384391</v>
+        <v>0.1723983778326488</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1137709858448212</v>
+        <v>0.1078226429053554</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1278810911099391</v>
+        <v>0.1723855660722017</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03375239504458608</v>
+        <v>0.03398806427618047</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03375239504458608</v>
+        <v>0.03398806427618047</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07366289536107676</v>
+        <v>0.07031556618929174</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1286973901232986</v>
+        <v>0.1733105385619221</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1094329824564201</v>
+        <v>0.1047704174995213</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1285577106396214</v>
+        <v>0.1732976590143827</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0334474353519251</v>
+        <v>0.03485799582570953</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0334474353519251</v>
+        <v>0.03485799582570953</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06907320864754604</v>
+        <v>0.07102890338608633</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1293747448081581</v>
+        <v>0.1742226992911953</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1143206490022785</v>
+        <v>0.1054850038678395</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1292343301693036</v>
+        <v>0.1742097519565636</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03368073345499824</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03368073345499824</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07186377809899841</v>
+        <v>0.07231619270625439</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1300520994930175</v>
+        <v>0.1751348600204686</v>
       </c>
       <c r="N257" t="n">
-        <v>0.106165037628995</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1299109496989858</v>
+        <v>0.1751218448987446</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03599745419121912</v>
+        <v>0.03441410709380646</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03599745419121912</v>
+        <v>0.03441410709380646</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07129674525192345</v>
+        <v>0.07126539047249475</v>
       </c>
       <c r="M258" t="n">
-        <v>0.130729454177877</v>
+        <v>0.1760470207497419</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1023432151576305</v>
+        <v>0.1057012976039871</v>
       </c>
       <c r="O258" t="n">
-        <v>0.130587569228668</v>
+        <v>0.1760339378409256</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03555541480211041</v>
+        <v>0.03440254062946772</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03555541480211041</v>
+        <v>0.03440254062946772</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0727541455779632</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1314068088627364</v>
+        <v>0.1769591814790152</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1134758352152632</v>
+        <v>0.1085293602598795</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1312641887583502</v>
+        <v>0.1769460307831065</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03422179450397035</v>
+        <v>0.03535969844282728</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03422179450397035</v>
+        <v>0.03535969844282728</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07056913777322826</v>
+        <v>0.07238433204899411</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1320841635475959</v>
+        <v>0.1778713422082884</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1143414378147765</v>
+        <v>0.1059146816155534</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1319408082880325</v>
+        <v>0.1778581237252875</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03622527773043699</v>
+        <v>0.03430243621672738</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03622527773043699</v>
+        <v>0.03430243621672738</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07358271880242262</v>
+        <v>0.07182665879857977</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1327615182324554</v>
+        <v>0.1787835029375617</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1036795709021765</v>
+        <v>0.1109676762796669</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1326174278177147</v>
+        <v>0.1787702166674685</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03591266764035835</v>
+        <v>0.03500128326788012</v>
       </c>
       <c r="G262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03591266764035835</v>
+        <v>0.03500128326788012</v>
       </c>
       <c r="K262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07493184447559231</v>
+        <v>0.07181243450414121</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1334388729173148</v>
+        <v>0.179695663666835</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1133206013120268</v>
+        <v>0.1047196968271437</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1332940473473969</v>
+        <v>0.1796823096096494</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0364714245391745</v>
+        <v>0.03439100534424872</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0364714245391745</v>
+        <v>0.03439100534424872</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07204477730161976</v>
+        <v>0.07170799212268306</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1341162276021743</v>
+        <v>0.1806078243961083</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1173452636123944</v>
+        <v>0.1052112536236002</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1339706668770791</v>
+        <v>0.1805944025518304</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03599346386507034</v>
+        <v>0.03426533224780552</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03599346386507034</v>
+        <v>0.03426533224780552</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06936317370549999</v>
+        <v>0.07060406129603869</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1347935822870338</v>
+        <v>0.1815199851253816</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1164162709542447</v>
+        <v>0.1117947173275549</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1346472864067613</v>
+        <v>0.1815064954940113</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1072.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.000224999999999996</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.000224999999999996</v>
+        <v>0.0003949999999999995</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.02016705597072985</v>
+        <v>0.01836642597334326</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004526802405793505</v>
+        <v>0.0003924420560929156</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-7.499999999999174e-05</v>
+        <v>0.03109751010448591</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0004105251072364374</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001212536358694689</v>
+        <v>0.001154241341449752</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001199046727324471</v>
+        <v>0.001080329229569573</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03639385461828024</v>
+        <v>0.03435144026435333</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001824321458546548</v>
+        <v>0.001823735578976247</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05453866805272101</v>
+        <v>0.05306733529999674</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001824185884361923</v>
+        <v>0.001822992743680969</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01807836430823727</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002744536464241311</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01807836430823727</v>
+        <v>0.01786130168252228</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03808982006608819</v>
+        <v>0.03542578907624724</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002736482187819822</v>
+        <v>0.002735603368464371</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05437763581866384</v>
+        <v>0.05787169056097591</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002736278826542884</v>
+        <v>0.002734489115521454</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01777081928110569</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003659381952321748</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01777081928110569</v>
+        <v>0.0178458790007326</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03620969884648606</v>
+        <v>0.03715759192989121</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003648642917093096</v>
+        <v>0.003647471157952495</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05605782215036109</v>
+        <v>0.0587337060983556</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003648371768723846</v>
+        <v>0.003645985487361938</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01819106880172729</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004574227440402184</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01819106880172729</v>
+        <v>0.01891811389455178</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03758672802753871</v>
+        <v>0.0380609601890593</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004560803646366371</v>
+        <v>0.004559338947440619</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05708444001403623</v>
+        <v>0.05994133957408199</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004560464710904807</v>
+        <v>0.004557481859202422</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01798857243708003</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005489072928482623</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01798857243708003</v>
+        <v>0.01884245839882899</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03975818783622412</v>
+        <v>0.03997073521588357</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005472964375639644</v>
+        <v>0.005471206736928742</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05859433958827914</v>
+        <v>0.05743944947099783</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005472557653085769</v>
+        <v>0.005468978231042907</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01852716791632845</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006403918416563059</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01852716791632845</v>
+        <v>0.01905777133938857</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04051490706254188</v>
+        <v>0.0394179056236722</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006385125104912918</v>
+        <v>0.006383074526416866</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05863673533488623</v>
+        <v>0.0589240285419127</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00638465059526673</v>
+        <v>0.006380474602883391</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01951494579203565</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007318763904643496</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01951494579203565</v>
+        <v>0.01855527372316425</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04113594073026156</v>
+        <v>0.03906538946694396</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007297285834186192</v>
+        <v>0.007294942315904989</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06113078815711415</v>
+        <v>0.05978021602666828</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007296743537447692</v>
+        <v>0.007291970974723876</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0185671568258106</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.008233609392723934</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0185671568258106</v>
+        <v>0.01873043435777201</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03859839593961298</v>
+        <v>0.04073693876237069</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.008209446563459467</v>
+        <v>0.008206810105393113</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06123193230825164</v>
+        <v>0.05909001908364914</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.008208836479628653</v>
+        <v>0.008203467346564361</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01931828687739942</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.009148454880804369</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01931828687739942</v>
+        <v>0.01942539674901496</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04018993222012321</v>
+        <v>0.04116253788468011</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.009121607292732741</v>
+        <v>0.009118677894881237</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06028407639788252</v>
+        <v>0.05750703589076522</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.009120929421809615</v>
+        <v>0.009114963718404845</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01982756710230425</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01006330036888481</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01982756710230425</v>
+        <v>0.01877557085297049</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04141249078094186</v>
+        <v>0.03997045379162312</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01003376802200601</v>
+        <v>0.01003054568436936</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05858004107900316</v>
+        <v>0.0588051575433774</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01003302236399058</v>
+        <v>0.01002646009024533</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01947943776304818</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01097814585696525</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01947943776304818</v>
+        <v>0.01934734795349792</v>
       </c>
       <c r="K77" t="n">
         <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03922579527228054</v>
+        <v>0.0414201778430163</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01094592875127929</v>
+        <v>0.01094241347385748</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06248794269568225</v>
+        <v>0.05952155077099036</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01094511530617154</v>
+        <v>0.01093795646208581</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01991827498876222</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01189299134504568</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01991827498876222</v>
+        <v>0.01937722563086841</v>
       </c>
       <c r="K78" t="n">
         <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04072729178939524</v>
+        <v>0.03968320629467742</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01185808948055256</v>
+        <v>0.01185428126334561</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06402724301097384</v>
+        <v>0.05982061523844517</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0118572082483525</v>
+        <v>0.0118494528339263</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01957146736423646</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01280783683312612</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01957146736423646</v>
+        <v>0.0195251068920549</v>
       </c>
       <c r="K79" t="n">
         <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04125751908593397</v>
+        <v>0.04021616197935729</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01277025020982584</v>
+        <v>0.01276614905283373</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06161305520997956</v>
+        <v>0.05929010059801021</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01276930119053346</v>
+        <v>0.01276094920576678</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01916996988362167</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01372268232120656</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01916996988362167</v>
+        <v>0.02031074922339483</v>
       </c>
       <c r="K80" t="n">
         <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0418244692050504</v>
+        <v>0.04260030703348699</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01368241093909911</v>
+        <v>0.01367801684232186</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06483484682014157</v>
+        <v>0.06046979197598368</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01368139413271442</v>
+        <v>0.01367244557760727</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01972989828339275</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01463752780928699</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01972989828339275</v>
+        <v>0.01898960464274943</v>
       </c>
       <c r="K81" t="n">
         <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0401173031638791</v>
+        <v>0.03973515414851536</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01459457166837238</v>
+        <v>0.01458988463180998</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06458616362856423</v>
+        <v>0.06160197271350293</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01459348707489538</v>
+        <v>0.01458394194944775</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01969928192686787</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01555237329736743</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01969928192686787</v>
+        <v>0.02016317601557817</v>
       </c>
       <c r="K82" t="n">
         <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04104864768843555</v>
+        <v>0.04187020380163609</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01550673239764566</v>
+        <v>0.0155017524212981</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05961529866429061</v>
+        <v>0.05930138522566591</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01550558001707635</v>
+        <v>0.01549543832128824</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02029406221071141</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01646721878544787</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02029406221071141</v>
+        <v>0.01956989816279182</v>
       </c>
       <c r="K83" t="n">
         <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04278600432027782</v>
+        <v>0.03925662110211209</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01641889312691893</v>
+        <v>0.01641362021078623</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06142853735331161</v>
+        <v>0.06304504686212931</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01641767295925731</v>
+        <v>0.01640693469312872</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.020599789791066</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0173820642735283</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.020599789791066</v>
+        <v>0.02018261680502773</v>
       </c>
       <c r="K84" t="n">
         <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04225036022033835</v>
+        <v>0.04087192050729771</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01733105385619221</v>
+        <v>0.01732548800027435</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06473324005874015</v>
+        <v>0.06201927929548479</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01732976590143827</v>
+        <v>0.01731843106496921</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01954788781137684</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01829690976160874</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01954788781137684</v>
+        <v>0.02037913210979415</v>
       </c>
       <c r="K85" t="n">
         <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04030579314860736</v>
+        <v>0.04005280186751514</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01824321458546548</v>
+        <v>0.01823735578976247</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06483797370600003</v>
+        <v>0.06048911839085014</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01824185884361923</v>
+        <v>0.01822992743680969</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01977926797564381</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01921175524968918</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01977926797564381</v>
+        <v>0.01957042173255844</v>
       </c>
       <c r="K86" t="n">
         <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04272996442025648</v>
+        <v>0.03947560551267967</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01915537531473875</v>
+        <v>0.0191492235792506</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0598839193187905</v>
+        <v>0.06170503361438873</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01915395178580019</v>
+        <v>0.01914142380865018</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01981005309855678</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02012660073776961</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01981005309855678</v>
+        <v>0.0195095205916503</v>
       </c>
       <c r="K87" t="n">
         <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04223965924965126</v>
+        <v>0.04023487794350999</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02006753604401203</v>
+        <v>0.02006109136873872</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06461396046573264</v>
+        <v>0.06033432139754497</v>
       </c>
       <c r="O87" t="n">
-        <v>0.02006604472798115</v>
+        <v>0.02005292018049066</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02020458483814282</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02104144622585005</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02020458483814282</v>
+        <v>0.02095336383042871</v>
       </c>
       <c r="K88" t="n">
         <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04209949400663618</v>
+        <v>0.04161146334533478</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0209796967732853</v>
+        <v>0.02097295915822684</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06438598894892394</v>
+        <v>0.06096987595915898</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02097813767016211</v>
+        <v>0.02096441655233114</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4780 +10191,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02022252842493599</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02195629171393049</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02022252842493599</v>
+        <v>0.02059024805194951</v>
       </c>
       <c r="K89" t="n">
         <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04117913243983198</v>
+        <v>0.04378802775464372</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02189185750255858</v>
+        <v>0.02188482694771497</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06493912741315605</v>
+        <v>0.065822748791527</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02189023061234308</v>
+        <v>0.02187591292417163</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02044898853450525</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02287113720201093</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02044898853450525</v>
+        <v>0.02052781924109696</v>
       </c>
       <c r="K90" t="n">
         <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04103529433584316</v>
+        <v>0.04012470411141372</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02280401823183185</v>
+        <v>0.02279669473720309</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06636264661332397</v>
+        <v>0.0616881107956388</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02280232355452404</v>
+        <v>0.02278740929601211</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02057391934001791</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02378598269009136</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02057391934001791</v>
+        <v>0.02012861596728219</v>
       </c>
       <c r="K91" t="n">
         <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04134975406474245</v>
+        <v>0.04102458092677486</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02371617896110513</v>
+        <v>0.02370856252669121</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06606951113927267</v>
+        <v>0.06427966967868864</v>
       </c>
       <c r="O91" t="n">
-        <v>0.023714416496705</v>
+        <v>0.0236989056678526</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02017534074577959</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0247008281781718</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02017534074577959</v>
+        <v>0.02043198156614992</v>
       </c>
       <c r="K92" t="n">
         <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04248297034003751</v>
+        <v>0.04414391468966941</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0246283396903784</v>
+        <v>0.02462043031617934</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06496140113442889</v>
+        <v>0.06511215348766686</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02462650943888596</v>
+        <v>0.02461040203969308</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02078269260306682</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02561567366625224</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02078269260306682</v>
+        <v>0.02108126342776775</v>
       </c>
       <c r="K93" t="n">
         <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04179876339188751</v>
+        <v>0.04288148836860409</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02554050041965167</v>
+        <v>0.02553229810566746</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06450914624025345</v>
+        <v>0.0632188904152059</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02553860238106692</v>
+        <v>0.02552189841153357</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02085685662014909</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02653051915433268</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02085685662014909</v>
+        <v>0.020401132626332</v>
       </c>
       <c r="K94" t="n">
         <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04431256576381021</v>
+        <v>0.04419322512872323</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02645266114892495</v>
+        <v>0.02644416589515559</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06549596463247226</v>
+        <v>0.06385088340979195</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02645069532324788</v>
+        <v>0.02643339478337405</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02150524692959883</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02744536464241311</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02150524692959883</v>
+        <v>0.02146889167119072</v>
       </c>
       <c r="K95" t="n">
         <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04261606854143238</v>
+        <v>0.04324872319025588</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02736482187819822</v>
+        <v>0.02735603368464371</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0640100031158275</v>
+        <v>0.06651529732348999</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02736278826542884</v>
+        <v>0.02734489115521454</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02114332587718162</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02836021013049355</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02114332587718162</v>
+        <v>0.02127091273009467</v>
       </c>
       <c r="K96" t="n">
         <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04213176072198263</v>
+        <v>0.04453738496412538</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0282769826074715</v>
+        <v>0.02826790147413184</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06841634985180256</v>
+        <v>0.06433274156402141</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0282748812076098</v>
+        <v>0.02825638752705502</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02076413121987471</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02927505561857398</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02076413121987471</v>
+        <v>0.02067155114583964</v>
       </c>
       <c r="K97" t="n">
         <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04217895727567805</v>
+        <v>0.04582863062472334</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02918914333674477</v>
+        <v>0.02917976926361996</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06517858795104919</v>
+        <v>0.06829154902645201</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02918697414979077</v>
+        <v>0.02916788389889551</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02134805399885062</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03018990110665442</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02134805399885062</v>
+        <v>0.02182713139102566</v>
       </c>
       <c r="K98" t="n">
         <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04590473337034412</v>
+        <v>0.04356728671786567</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03010130406601804</v>
+        <v>0.03009163705310808</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06808478625862907</v>
+        <v>0.06751792523489597</v>
       </c>
       <c r="O98" t="n">
-        <v>0.03009906709197173</v>
+        <v>0.03007938027073599</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0221400093045048</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110474659473486</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0221400093045048</v>
+        <v>0.02179631496737165</v>
       </c>
       <c r="K99" t="n">
         <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04290769980235332</v>
+        <v>0.0459342682995848</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03101346479529132</v>
+        <v>0.0310035048425962</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06796472596141373</v>
+        <v>0.06656318172241371</v>
       </c>
       <c r="O99" t="n">
-        <v>0.03101116003415269</v>
+        <v>0.03099087664257648</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0213196096133982</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0320195920828153</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0213196096133982</v>
+        <v>0.02181563542205453</v>
       </c>
       <c r="K100" t="n">
         <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04613446746736882</v>
+        <v>0.04622444102635126</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03192562552456459</v>
+        <v>0.03191537263208433</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06501642377672306</v>
+        <v>0.06728867274582506</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03192325297633365</v>
+        <v>0.03190237301441696</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02148770891978539</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03293443757089574</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02148770891978539</v>
+        <v>0.02214793748363103</v>
       </c>
       <c r="K101" t="n">
         <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04374005836141287</v>
+        <v>0.04380785420943031</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03283778625383787</v>
+        <v>0.03282724042157245</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06578285488367763</v>
+        <v>0.06759308050634555</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03283534591851461</v>
+        <v>0.03281386938625745</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02156004317044793</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03384928305897617</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02156004317044793</v>
+        <v>0.02252324385107972</v>
       </c>
       <c r="K102" t="n">
         <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04380100686994437</v>
+        <v>0.04665041208983822</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03374994698311114</v>
+        <v>0.03373910821106058</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07016256165551477</v>
+        <v>0.06808516093637706</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03374743886069557</v>
+        <v>0.03372536575809792</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02246122983392537</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03476412854705661</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02246122983392537</v>
+        <v>0.02133566307907288</v>
       </c>
       <c r="K103" t="n">
         <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04442490590559103</v>
+        <v>0.04537494279325366</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03466210771238441</v>
+        <v>0.0346509760005487</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07053081548600526</v>
+        <v>0.06896858171284415</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03465953180287654</v>
+        <v>0.03463686212993841</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02191091638696685</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03567897403513704</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02191091638696685</v>
+        <v>0.02234582765836778</v>
       </c>
       <c r="K104" t="n">
         <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04395216604030905</v>
+        <v>0.04612321610686948</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03557426844165769</v>
+        <v>0.03556284379003682</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0712804456632824</v>
+        <v>0.07132631704183001</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0355716247450575</v>
+        <v>0.0355483585017789</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02148457148375538</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03659381952321748</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02148457148375538</v>
+        <v>0.02289846201991816</v>
       </c>
       <c r="K105" t="n">
         <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04619924219935254</v>
+        <v>0.04569272295849652</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03648642917093096</v>
+        <v>0.03647471157952495</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0675083369565051</v>
+        <v>0.06604711422680032</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03648371768723846</v>
+        <v>0.03645985487361938</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02155890353931346</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03750866501129792</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02155890353931346</v>
+        <v>0.02182533338697622</v>
       </c>
       <c r="K106" t="n">
         <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04530321452259664</v>
+        <v>0.04672870687883629</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03739858990020423</v>
+        <v>0.03738657936901307</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07061327388008026</v>
+        <v>0.07030294420457872</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03739581062941942</v>
+        <v>0.03737135124545986</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02205363944635992</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03842351049937836</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02205363944635992</v>
+        <v>0.02162175067842947</v>
       </c>
       <c r="K107" t="n">
         <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04702203438406535</v>
+        <v>0.04748456564949166</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03831075062947751</v>
+        <v>0.03829844715850119</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06813107512513289</v>
+        <v>0.07025400640975948</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03830790357160038</v>
+        <v>0.03828284761730035</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02242674298920547</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03933835598745879</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02242674298920547</v>
+        <v>0.02230337621953955</v>
       </c>
       <c r="K108" t="n">
         <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04449118291046322</v>
+        <v>0.04745286624189932</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03922291135875079</v>
+        <v>0.03921031494798932</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06771989605748147</v>
+        <v>0.07069091279573142</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03921999651378134</v>
+        <v>0.03919434398914084</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02271647882782143</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04025320147553923</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02271647882782143</v>
+        <v>0.0224458560313924</v>
       </c>
       <c r="K109" t="n">
         <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04457950854080797</v>
+        <v>0.0460952944968199</v>
       </c>
       <c r="M109" t="n">
-        <v>0.04013507208802405</v>
+        <v>0.04012218273747745</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07416479083069616</v>
+        <v>0.07190330301753517</v>
       </c>
       <c r="O109" t="n">
-        <v>0.04013208945596231</v>
+        <v>0.04010584036098132</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02265802005272337</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04116804696361966</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02265802005272337</v>
+        <v>0.0223523752395393</v>
       </c>
       <c r="K110" t="n">
         <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04546129071539376</v>
+        <v>0.04838633518803737</v>
       </c>
       <c r="M110" t="n">
-        <v>0.04104723281729733</v>
+        <v>0.04103405052696557</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0700841012907471</v>
+        <v>0.06901591128226381</v>
       </c>
       <c r="O110" t="n">
-        <v>0.04104418239814327</v>
+        <v>0.0410173367328218</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0224470848466377</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0420828924517001</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0224470848466377</v>
+        <v>0.0229280465880238</v>
       </c>
       <c r="K111" t="n">
         <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04580348786168906</v>
+        <v>0.04490060076069879</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04195939354657061</v>
+        <v>0.04194591831645369</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06976586875744589</v>
+        <v>0.07343442793977795</v>
       </c>
       <c r="O111" t="n">
-        <v>0.04195627534032423</v>
+        <v>0.04192883310466228</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02311832000118121</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04299773793978054</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02311832000118121</v>
+        <v>0.02347588463990953</v>
       </c>
       <c r="K112" t="n">
         <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04553430892032606</v>
+        <v>0.04500459680019264</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04287155427584388</v>
+        <v>0.04285778610594181</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07058064779413237</v>
+        <v>0.06947403218498144</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04286836828250519</v>
+        <v>0.04284032947650277</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02325339279392322</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04391258342786098</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02325339279392322</v>
+        <v>0.0225007644190829</v>
       </c>
       <c r="K113" t="n">
         <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04705438961165354</v>
+        <v>0.04825472804037156</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04378371500511715</v>
+        <v>0.04376965389542994</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07067253379017102</v>
+        <v>0.07340900601013289</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04378046122468615</v>
+        <v>0.04375182584834326</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02337286163706598</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04482742891594142</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02337286163706598</v>
+        <v>0.02216558959712996</v>
       </c>
       <c r="K114" t="n">
         <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04873923646151118</v>
+        <v>0.04629534939105573</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04469587573439043</v>
+        <v>0.04468152168491806</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07036948188108416</v>
+        <v>0.07402725189783682</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04469255416686711</v>
+        <v>0.04466332222018374</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02387964301934307</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04574227440402185</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02387964301934307</v>
+        <v>0.02357964301934308</v>
       </c>
       <c r="K115" t="n">
         <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04691607533451359</v>
+        <v>0.04924558260027517</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0456080364636637</v>
+        <v>0.04559338947440619</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07055315517463684</v>
+        <v>0.07298020723368831</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04560464710904807</v>
+        <v>0.04557481859202422</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02287519657765548</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04665711989210228</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02287519657765548</v>
+        <v>0.02399296209324747</v>
       </c>
       <c r="K116" t="n">
         <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04943193642894833</v>
+        <v>0.04695866889992525</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04652019719293697</v>
+        <v>0.0465052572638943</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07242936196842381</v>
+        <v>0.06989281441921236</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04651674005122904</v>
+        <v>0.04648631496386471</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02365290936184924</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04757196538018273</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02365290936184924</v>
+        <v>0.02369698141748802</v>
       </c>
       <c r="K117" t="n">
         <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04793328348304254</v>
+        <v>0.04865749426836286</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04743235792221025</v>
+        <v>0.04741712505338243</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0701454064218866</v>
+        <v>0.07331001064011466</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04742883299341</v>
+        <v>0.0473978113357052</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02259917991835719</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04848681086826316</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02259917991835719</v>
+        <v>0.02332432421749564</v>
       </c>
       <c r="K118" t="n">
         <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04981478032045494</v>
+        <v>0.05004154424457752</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04834451865148352</v>
+        <v>0.04832899284287056</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07425332614453334</v>
+        <v>0.07068439362118312</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04834092593559096</v>
+        <v>0.04830930770754568</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02318388185527796</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0494016563563436</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02318388185527796</v>
+        <v>0.02322497103707551</v>
       </c>
       <c r="K119" t="n">
         <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04936704139604986</v>
+        <v>0.05029396996210267</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0492566793807568</v>
+        <v>0.04924086063235868</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07343223855897907</v>
+        <v>0.07679341983327237</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04925301887777192</v>
+        <v>0.04922080407938616</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02397333148197234</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.05031650184442404</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02397333148197234</v>
+        <v>0.02335629238561783</v>
       </c>
       <c r="K120" t="n">
         <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04780445272728256</v>
+        <v>0.04717920600625267</v>
       </c>
       <c r="M120" t="n">
-        <v>0.05016884011003007</v>
+        <v>0.0501527284218468</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07354017178023381</v>
+        <v>0.07549630181490297</v>
       </c>
       <c r="O120" t="n">
-        <v>0.05016511181995288</v>
+        <v>0.05013230045122665</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02379403507739948</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.05123134733250447</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02379403507739948</v>
+        <v>0.02339943506243625</v>
       </c>
       <c r="K121" t="n">
         <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04735479004183371</v>
+        <v>0.04773970337031108</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05108100083930334</v>
+        <v>0.05106459621133493</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07569650961174607</v>
+        <v>0.07466778584323502</v>
       </c>
       <c r="O121" t="n">
-        <v>0.05107720476213384</v>
+        <v>0.05104379682306713</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02348942597460126</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05214619282058491</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02348942597460126</v>
+        <v>0.02423636855455316</v>
       </c>
       <c r="K122" t="n">
         <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0497708590624179</v>
+        <v>0.04959830210694222</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05199316156857662</v>
+        <v>0.05197646400082305</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07585119377025806</v>
+        <v>0.07500790301585497</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0519892977043148</v>
+        <v>0.05195529319490762</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02366401553856301</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05306103830866536</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02366401553856301</v>
+        <v>0.02418202126565966</v>
       </c>
       <c r="K123" t="n">
         <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04875741863045907</v>
+        <v>0.04960365046831028</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0529053222978499</v>
+        <v>0.05288833179031118</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07270267972618799</v>
+        <v>0.07115030230242597</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05290139064649577</v>
+        <v>0.0528667895667481</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02431960585392151</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05397588379674579</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02431960585392151</v>
+        <v>0.02413810698094546</v>
       </c>
       <c r="K124" t="n">
         <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05057802186710431</v>
+        <v>0.04914717249113418</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05381748302712317</v>
+        <v>0.05380019957979929</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07697199480117267</v>
+        <v>0.07744576043330959</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05381348358867672</v>
+        <v>0.05377828593858858</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02372973087559657</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05489072928482622</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02372973087559657</v>
+        <v>0.02477921400149595</v>
       </c>
       <c r="K125" t="n">
         <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05006026592054733</v>
+        <v>0.05056821945721907</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05472964375639644</v>
+        <v>0.05471206736928742</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07858586666923612</v>
+        <v>0.07294001423543117</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05472557653085769</v>
+        <v>0.05468978231042907</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02349097866474244</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05580557477290666</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02349097866474244</v>
+        <v>0.02413260356596808</v>
       </c>
       <c r="K126" t="n">
         <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05114143662080059</v>
+        <v>0.05196973415054465</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05564180448566971</v>
+        <v>0.05562393515877554</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07471373408348514</v>
+        <v>0.07636122486525687</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05563766947303865</v>
+        <v>0.05560127868226955</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02401570453756448</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05672042026098709</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02401570453756448</v>
+        <v>0.02435439099098706</v>
       </c>
       <c r="K127" t="n">
         <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05046011501629408</v>
+        <v>0.048325760844219</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05655396521494299</v>
+        <v>0.05653580294826367</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07329925326499465</v>
+        <v>0.07233612453266042</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05654976241521961</v>
+        <v>0.05651277505411004</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02433622314661602</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05763526574906754</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02433622314661602</v>
+        <v>0.02441810763035453</v>
       </c>
       <c r="K128" t="n">
         <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04967629021629344</v>
+        <v>0.05166862179875684</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05746612594421627</v>
+        <v>0.05744767073775179</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0784550250859597</v>
+        <v>0.07584091062576165</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05746185535740058</v>
+        <v>0.05742427142595052</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02415840816342775</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05855011123714797</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02415840816342775</v>
+        <v>0.0247962225359869</v>
       </c>
       <c r="K129" t="n">
         <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04945225910011528</v>
+        <v>0.04861621226291329</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05837828667348954</v>
+        <v>0.05835953852723991</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07729353635492248</v>
+        <v>0.07430330011402209</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05837394829958154</v>
+        <v>0.05833576779779101</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02407968828549688</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0594649567252284</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02407968828549688</v>
+        <v>0.02427067680321306</v>
       </c>
       <c r="K130" t="n">
         <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05183589754079035</v>
+        <v>0.04971645391978621</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05929044740276281</v>
+        <v>0.05927140631672805</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07778945112448427</v>
+        <v>0.07490818492469492</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05928604124176249</v>
+        <v>0.0592472641696315</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02440802165197629</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.06037980221330884</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02440802165197629</v>
+        <v>0.02513258894274939</v>
       </c>
       <c r="K131" t="n">
         <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05068432344317944</v>
+        <v>0.04997066540267731</v>
       </c>
       <c r="M131" t="n">
-        <v>0.06020260813203608</v>
+        <v>0.06018327410621616</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07961852318830442</v>
+        <v>0.07312365013746686</v>
       </c>
       <c r="O131" t="n">
-        <v>0.06019813418394346</v>
+        <v>0.06015876054147198</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02404202469876918</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.06129464770138928</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02404202469876918</v>
+        <v>0.02513297678380817</v>
       </c>
       <c r="K132" t="n">
         <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05212749980814849</v>
+        <v>0.05066521471190427</v>
       </c>
       <c r="M132" t="n">
-        <v>0.06111476886130936</v>
+        <v>0.06109514189570429</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07592832875351224</v>
+        <v>0.07575262993337706</v>
       </c>
       <c r="O132" t="n">
-        <v>0.06111022712612442</v>
+        <v>0.06107025691331246</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02518851137507035</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06220949318946972</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02518851137507035</v>
+        <v>0.02479118481449324</v>
       </c>
       <c r="K133" t="n">
         <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05157602155210522</v>
+        <v>0.05009538928890764</v>
       </c>
       <c r="M133" t="n">
-        <v>0.06202692959058263</v>
+        <v>0.0620070096851924</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07910272546919112</v>
+        <v>0.08096747180751362</v>
       </c>
       <c r="O133" t="n">
-        <v>0.06202232006830538</v>
+        <v>0.06198175328515295</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02544991670073925</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06312433867755014</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02544991670073925</v>
+        <v>0.02421580110820636</v>
       </c>
       <c r="K134" t="n">
         <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05086244137063797</v>
+        <v>0.05189728928638207</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06293909031985591</v>
+        <v>0.06291887747468054</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07988915937914332</v>
+        <v>0.07676050951849234</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06293441301048634</v>
+        <v>0.06289324965699343</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02553383674966524</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06403918416563059</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02553383674966524</v>
+        <v>0.02536125954279597</v>
       </c>
       <c r="K135" t="n">
         <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05318849351952287</v>
+        <v>0.05011408676356635</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06385125104912918</v>
+        <v>0.06383074526416865</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07874109160734477</v>
+        <v>0.08067160932621092</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0638465059526673</v>
+        <v>0.06380474602883392</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02556987007912749</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06495402965371104</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02556987007912749</v>
+        <v>0.025431846469178</v>
       </c>
       <c r="K136" t="n">
         <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05244961938044304</v>
+        <v>0.05000049727669442</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06476341177840246</v>
+        <v>0.06474261305365678</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08103733091382714</v>
+        <v>0.08125468796630697</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06475859889484827</v>
+        <v>0.0647162424006744</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02555516386382038</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06586887514179147</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02555516386382038</v>
+        <v>0.02477085575268205</v>
       </c>
       <c r="K137" t="n">
         <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0515089641007144</v>
+        <v>0.05160066764256302</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06567557250767574</v>
+        <v>0.0656544808431449</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07777032319339822</v>
+        <v>0.08177698782184839</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06567069183702923</v>
+        <v>0.06562773877251489</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02572260637660879</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06678372062987191</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02572260637660879</v>
+        <v>0.02480744080812411</v>
       </c>
       <c r="K138" t="n">
         <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05089466807334656</v>
+        <v>0.0504161773271958</v>
       </c>
       <c r="M138" t="n">
-        <v>0.066587733236949</v>
+        <v>0.06656634863263303</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07605408202701652</v>
+        <v>0.07748346184456217</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06658278477921019</v>
+        <v>0.06653923514435536</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02549769798055454</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06769856611795234</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02549769798055454</v>
+        <v>0.02552378411944618</v>
       </c>
       <c r="K139" t="n">
         <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05148389090114625</v>
+        <v>0.05047408616226928</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06749989396622227</v>
+        <v>0.06747821642212115</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08045570835693489</v>
+        <v>0.07797475232133444</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06749487772139115</v>
+        <v>0.06745073151619585</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02515255290982846</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06861341160603278</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02515255290982846</v>
+        <v>0.02438865376524847</v>
       </c>
       <c r="K140" t="n">
         <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05291941430871008</v>
+        <v>0.05106409869265582</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06841205469549555</v>
+        <v>0.06839008421160928</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07698239535324614</v>
+        <v>0.08101899618070302</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06840697066357211</v>
+        <v>0.06836222788803634</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02603727299551729</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06952825709411321</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02603727299551729</v>
+        <v>0.02553126412675491</v>
       </c>
       <c r="K141" t="n">
         <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05287027009862955</v>
+        <v>0.05060001071004594</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06932421542476883</v>
+        <v>0.0693019520010974</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08227854661063361</v>
+        <v>0.07833877361637376</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06931906360575307</v>
+        <v>0.06927372425987682</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02586512241089864</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07044310258219365</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02586512241089864</v>
+        <v>0.02597439768483455</v>
       </c>
       <c r="K142" t="n">
         <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05349354129821093</v>
+        <v>0.05443596038220716</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0702363761540421</v>
+        <v>0.07021381979058552</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0771180987308755</v>
+        <v>0.07627762913112235</v>
       </c>
       <c r="O142" t="n">
-        <v>0.07023115654793403</v>
+        <v>0.07018522063171731</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02600760430261638</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07135794807027408</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02600760430261638</v>
+        <v>0.02505398873557882</v>
       </c>
       <c r="K143" t="n">
         <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05250826817858853</v>
+        <v>0.05139351642124895</v>
       </c>
       <c r="M143" t="n">
-        <v>0.07114853688331538</v>
+        <v>0.07112568758007365</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08228403034893206</v>
+        <v>0.08078155982816659</v>
       </c>
       <c r="O143" t="n">
-        <v>0.071143249490115</v>
+        <v>0.0710967170035578</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02549353803045631</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.07227279355835452</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02549353803045631</v>
+        <v>0.02552079039260181</v>
       </c>
       <c r="K144" t="n">
         <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05415447853242344</v>
+        <v>0.05261028824512026</v>
       </c>
       <c r="M144" t="n">
-        <v>0.07206069761258864</v>
+        <v>0.07203755536956176</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07813734957915253</v>
+        <v>0.08103586761924852</v>
       </c>
       <c r="O144" t="n">
-        <v>0.07205534243229596</v>
+        <v>0.07200821337539827</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02587602798634984</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07318763904643495</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02587602798634984</v>
+        <v>0.02590776989675633</v>
       </c>
       <c r="K145" t="n">
         <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05074097018186702</v>
+        <v>0.05403953334138431</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07297285834186193</v>
+        <v>0.0729494231590499</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07814787497984166</v>
+        <v>0.08021868272810412</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07296743537447692</v>
+        <v>0.07291970974723876</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02581085555046847</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0741024845345154</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02581085555046847</v>
+        <v>0.02605510555101299</v>
       </c>
       <c r="K146" t="n">
         <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05359872122173626</v>
+        <v>0.05191402500233169</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07388501907113521</v>
+        <v>0.07386129094853802</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08001468766611908</v>
+        <v>0.07814440042185566</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07387952831665788</v>
+        <v>0.07383120611907924</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02549024061026214</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07501733002259584</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02549024061026214</v>
+        <v>0.02568783914603853</v>
       </c>
       <c r="K147" t="n">
         <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05276916144134963</v>
+        <v>0.05200126547147721</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07479717980040847</v>
+        <v>0.07477315873802615</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0833745596778207</v>
+        <v>0.07878630220824911</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07479162125883884</v>
+        <v>0.07474270249091973</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0260383461714673</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07593217551067627</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0260383461714673</v>
+        <v>0.02656328081233775</v>
       </c>
       <c r="K148" t="n">
         <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05535256270653016</v>
+        <v>0.05419296519356018</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07570934052968174</v>
+        <v>0.07568502652751427</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08272153181391506</v>
+        <v>0.0793918852317288</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0757037142010198</v>
+        <v>0.07565419886276022</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02671875413774952</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07684702099875672</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02671875413774952</v>
+        <v>0.02542311740957534</v>
       </c>
       <c r="K149" t="n">
         <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05313107596471656</v>
+        <v>0.05548074766713471</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07662150125895502</v>
+        <v>0.07659689431700238</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08326208928025486</v>
+        <v>0.07820441480937734</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07661580714320076</v>
+        <v>0.0765656952346007</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0256303741570056</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07776186648683715</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0256303741570056</v>
+        <v>0.02627072809604283</v>
       </c>
       <c r="K150" t="n">
         <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05508410412629428</v>
+        <v>0.05274440492947496</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07753366198822829</v>
+        <v>0.07750876210649052</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0788905832746612</v>
+        <v>0.08262592109778011</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07752790008538173</v>
+        <v>0.07747719160644119</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02614946296480038</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07867671197491759</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02614946296480038</v>
+        <v>0.02629285667493325</v>
       </c>
       <c r="K151" t="n">
         <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05248984850891197</v>
+        <v>0.05593745251124932</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07844582271750157</v>
+        <v>0.07842062989597863</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08191800946180527</v>
+        <v>0.08449420213753528</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07843999302756269</v>
+        <v>0.07838868797828168</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02638652099120176</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07959155746299802</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02638652099120176</v>
+        <v>0.02562820186525455</v>
       </c>
       <c r="K152" t="n">
         <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0526808993085032</v>
+        <v>0.05252964187656664</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07935798344677485</v>
+        <v>0.07933249768546675</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08422042347456327</v>
+        <v>0.08081214951144167</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07935208596974365</v>
+        <v>0.07930018435012216</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02638598424563365</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.08050640295107846</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02638598424563365</v>
+        <v>0.02604954684617271</v>
       </c>
       <c r="K153" t="n">
         <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05529686330401648</v>
+        <v>0.05515003272788599</v>
       </c>
       <c r="M153" t="n">
-        <v>0.08027014417604811</v>
+        <v>0.08024436547495489</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08039988192664621</v>
+        <v>0.07948445674100602</v>
       </c>
       <c r="O153" t="n">
-        <v>0.08026417891192461</v>
+        <v>0.08021168072196264</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02617041167488943</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08142124843915889</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02617041167488943</v>
+        <v>0.02597906343228387</v>
       </c>
       <c r="K154" t="n">
         <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05618918245652013</v>
+        <v>0.0562128473857155</v>
       </c>
       <c r="M154" t="n">
-        <v>0.08118230490532138</v>
+        <v>0.081156233264443</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08423137875457032</v>
+        <v>0.08471479325081327</v>
       </c>
       <c r="O154" t="n">
-        <v>0.08117627185410557</v>
+        <v>0.08112317709380312</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02681448652427462</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.08233609392723933</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02681448652427462</v>
+        <v>0.02686771709783191</v>
       </c>
       <c r="K155" t="n">
         <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05288106698102202</v>
+        <v>0.05339140190014521</v>
       </c>
       <c r="M155" t="n">
-        <v>0.08209446563459466</v>
+        <v>0.08206810105393114</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07990444173082872</v>
+        <v>0.08312005274225276</v>
       </c>
       <c r="O155" t="n">
-        <v>0.08208836479628653</v>
+        <v>0.0820346734656436</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02681342917124498</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08325093941531976</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02681342917124498</v>
+        <v>0.02692109827376479</v>
       </c>
       <c r="K156" t="n">
         <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05542712273257483</v>
+        <v>0.05565556878876307</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08300662636386794</v>
+        <v>0.08297996884341925</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08023790228840055</v>
+        <v>0.07972106239075666</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0830004577384675</v>
+        <v>0.08294616983748408</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02708894235407826</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08416578490340021</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02708894235407826</v>
+        <v>0.02639743308699422</v>
       </c>
       <c r="K157" t="n">
         <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05640865767888553</v>
+        <v>0.05641139703760029</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08391878709314121</v>
+        <v>0.08389183663290738</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08460836657711901</v>
+        <v>0.08288997430636003</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08391255068064846</v>
+        <v>0.08385766620932457</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02605779310454955</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08508063039148064</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02605779310454955</v>
+        <v>0.02634231907433493</v>
       </c>
       <c r="K158" t="n">
         <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05454887360290803</v>
+        <v>0.05425141598073924</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08483094782241447</v>
+        <v>0.0848037044223955</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08627994466515188</v>
+        <v>0.08015228227691612</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08482464362282942</v>
+        <v>0.08476916258116506</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02718604806093146</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08599547587956108</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02718604806093146</v>
+        <v>0.02666298922747186</v>
       </c>
       <c r="K159" t="n">
         <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05467526869143</v>
+        <v>0.05623150588765061</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08574310855168776</v>
+        <v>0.08571557221188363</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08300691476507821</v>
+        <v>0.08609591605991102</v>
       </c>
       <c r="O159" t="n">
-        <v>0.08573673656501038</v>
+        <v>0.08568065895300554</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02745362891765689</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08691032136764151</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02745362891765689</v>
+        <v>0.02634521628978871</v>
       </c>
       <c r="K160" t="n">
         <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05534942566429127</v>
+        <v>0.05643905263951915</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08665526928096104</v>
+        <v>0.08662744000137175</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08517819826074685</v>
+        <v>0.08733322089484374</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08664882950719134</v>
+        <v>0.08659215532484603</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02671989452360765</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08782516685572196</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02671989452360765</v>
+        <v>0.02756762404946647</v>
       </c>
       <c r="K161" t="n">
         <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05749641958536331</v>
+        <v>0.05713392003566126</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0875674300102343</v>
+        <v>0.08753930779085987</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08122914243585033</v>
+        <v>0.08194695694872528</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0875609224493723</v>
+        <v>0.08750365169668652</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02636993311110382</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0887400123438024</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02636993311110382</v>
+        <v>0.02657078213299917</v>
       </c>
       <c r="K162" t="n">
         <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05731545321152742</v>
+        <v>0.05460382827735871</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08847959073950758</v>
+        <v>0.088451175580348</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08671719586972815</v>
+        <v>0.08622819952397559</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08847301539155326</v>
+        <v>0.088415148068527</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02733935565870967</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08965485783188283</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02733935565870967</v>
+        <v>0.02683783738602966</v>
       </c>
       <c r="K163" t="n">
         <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0553986998002084</v>
+        <v>0.05379560627027785</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08939175146878085</v>
+        <v>0.08936304336983612</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08591100537410656</v>
+        <v>0.081936724474381</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08938510833373423</v>
+        <v>0.08932664444036749</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02749879653906379</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.09056970331996327</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02749879653906379</v>
+        <v>0.02768476644575286</v>
       </c>
       <c r="K164" t="n">
         <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05399215197403875</v>
+        <v>0.05538097104723369</v>
       </c>
       <c r="M164" t="n">
-        <v>0.09030391219805413</v>
+        <v>0.09027491115932425</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08255563847099451</v>
+        <v>0.08407418967765223</v>
       </c>
       <c r="O164" t="n">
-        <v>0.09029720127591519</v>
+        <v>0.09023814081220798</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02686914024012167</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0914845488080437</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02686914024012167</v>
+        <v>0.02693045868007343</v>
       </c>
       <c r="K165" t="n">
         <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05399830378425702</v>
+        <v>0.05505730070154854</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0912160729273274</v>
+        <v>0.09118677894881237</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08801812901831407</v>
+        <v>0.0840072877025162</v>
       </c>
       <c r="O165" t="n">
-        <v>0.09120929421809615</v>
+        <v>0.09114963718404845</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02702651573791726</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.09239939429612413</v>
+        <v>0.05509309270869517</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02702651573791726</v>
+        <v>0.02670261664755767</v>
       </c>
       <c r="K166" t="n">
         <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05704439779830009</v>
+        <v>0.05618885391144765</v>
       </c>
       <c r="M166" t="n">
-        <v>0.09212823365660068</v>
+        <v>0.0920986467383005</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08827784181980503</v>
+        <v>0.08806494296131862</v>
       </c>
       <c r="O166" t="n">
-        <v>0.09212138716027711</v>
+        <v>0.09206113355588894</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02741213634440602</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09331423978420457</v>
+        <v>0.05512433942523363</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02741213634440602</v>
+        <v>0.02673004298730372</v>
       </c>
       <c r="K167" t="n">
         <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05497075910338114</v>
+        <v>0.05588519882197213</v>
       </c>
       <c r="M167" t="n">
-        <v>0.09304039438587394</v>
+        <v>0.09301051452778861</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08548974348109134</v>
+        <v>0.08564028635577259</v>
       </c>
       <c r="O167" t="n">
-        <v>0.09303348010245807</v>
+        <v>0.09297262992772942</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02682555664321289</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09422908527228502</v>
+        <v>0.05515472039892497</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02682555664321289</v>
+        <v>0.02791173491980935</v>
       </c>
       <c r="K168" t="n">
         <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05573116352989385</v>
+        <v>0.05782914791818436</v>
       </c>
       <c r="M168" t="n">
-        <v>0.09395255511514723</v>
+        <v>0.09392238231727675</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08656015098017683</v>
+        <v>0.08213803214104609</v>
       </c>
       <c r="O168" t="n">
-        <v>0.09394557304463903</v>
+        <v>0.09388412629956991</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02736441456439934</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09514393076036545</v>
+        <v>0.05518423562976914</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02736441456439934</v>
+        <v>0.02730133359665281</v>
       </c>
       <c r="K169" t="n">
         <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05732758279136368</v>
+        <v>0.05852258443754429</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09486471584442051</v>
+        <v>0.09483425010676486</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08614739771619062</v>
+        <v>0.08468210644204932</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09485766598681999</v>
+        <v>0.0947956226714104</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02758640452815572</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09605877624844589</v>
+        <v>0.0552128851177662</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02758640452815572</v>
+        <v>0.02704901079848418</v>
       </c>
       <c r="K170" t="n">
         <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05554815977758096</v>
+        <v>0.05661309192750219</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09577687657369377</v>
+        <v>0.09574611789625298</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0881571157134946</v>
+        <v>0.08763451879682471</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09576975892900096</v>
+        <v>0.09570711904325087</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02804881946396547</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09697362173652632</v>
+        <v>0.0552406688629161</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02804881946396547</v>
+        <v>0.02782318731257967</v>
       </c>
       <c r="K171" t="n">
         <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05848611075258206</v>
+        <v>0.05715379435381929</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09668903730296705</v>
+        <v>0.09665798568574112</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08401074093498484</v>
+        <v>0.08631338659949717</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09668185187118192</v>
+        <v>0.09661861541509136</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02747611625232586</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09788846722460676</v>
+        <v>0.05526758686521886</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02747611625232586</v>
+        <v>0.0275994794593707</v>
       </c>
       <c r="K172" t="n">
         <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05756007531788071</v>
+        <v>0.05794377977233442</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09760119803224032</v>
+        <v>0.09756985347522923</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08834418476059652</v>
+        <v>0.08317391459743217</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09759394481336288</v>
+        <v>0.09753011178693184</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02758809298651681</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09880331271268719</v>
+        <v>0.05529363912467447</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02758809298651681</v>
+        <v>0.02811548489058342</v>
       </c>
       <c r="K173" t="n">
         <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05582653992464895</v>
+        <v>0.05568552835828885</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0985133587615136</v>
+        <v>0.09848172126471737</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08777497462707184</v>
+        <v>0.08980068460564128</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09850603775554384</v>
+        <v>0.09844160815877233</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02807810683220244</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09971815820076764</v>
+        <v>0.05531882564128293</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02807810683220244</v>
+        <v>0.02748512830524658</v>
       </c>
       <c r="K174" t="n">
         <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05650803396495777</v>
+        <v>0.05735925193893343</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09942551949078687</v>
+        <v>0.09939358905420548</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08570645310912617</v>
+        <v>0.08621723521841407</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0994181306977248</v>
+        <v>0.09935310453061282</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02849934689958748</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1006330036888481</v>
+        <v>0.05534314641504428</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02849934689958748</v>
+        <v>0.02716389711565989</v>
       </c>
       <c r="K175" t="n">
         <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0587606967194752</v>
+        <v>0.05958094930958954</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1003376802200601</v>
+        <v>0.1003054568436936</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08771671987116303</v>
+        <v>0.08489895723143731</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1003302236399058</v>
+        <v>0.1002646009024533</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02782710338733554</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1015478491769285</v>
+        <v>0.05536660144595845</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02782710338733554</v>
+        <v>0.02744407318711692</v>
       </c>
       <c r="K176" t="n">
         <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05976550544303735</v>
+        <v>0.05825458045772752</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1012498409493334</v>
+        <v>0.1012173246331817</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08902295567572427</v>
+        <v>0.08948120400135939</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1012423165820867</v>
+        <v>0.1011760972742938</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02805017535227443</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1024626946650089</v>
+        <v>0.0553891907340255</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02805017535227443</v>
+        <v>0.02773892100425811</v>
       </c>
       <c r="K177" t="n">
         <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05917110936689154</v>
+        <v>0.05853795946601575</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1021620016786067</v>
+        <v>0.1021291924226699</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08526073256221239</v>
+        <v>0.08560885959437847</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1021544095242677</v>
+        <v>0.1020875936461343</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02799959370112719</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1033775401530894</v>
+        <v>0.05541091427924542</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02799959370112719</v>
+        <v>0.02897310490919848</v>
       </c>
       <c r="K178" t="n">
         <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05770864190752709</v>
+        <v>0.05626647409319604</v>
       </c>
       <c r="M178" t="n">
-        <v>0.10307416240788</v>
+        <v>0.103041060212158</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08541358072432903</v>
+        <v>0.08942216341713632</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1030665024664486</v>
+        <v>0.1029990900179747</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02746888974504533</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1042923856411698</v>
+        <v>0.05543177208161817</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02746888974504533</v>
+        <v>0.02886822853458186</v>
       </c>
       <c r="K179" t="n">
         <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05871371572797357</v>
+        <v>0.0567107338579666</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1039863231371532</v>
+        <v>0.1039529280016461</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08917090645877529</v>
+        <v>0.08891095914202474</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1039785954086296</v>
+        <v>0.1039105863898152</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0277138320108697</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1052072311292503</v>
+        <v>0.0554517641411438</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0277138320108697</v>
+        <v>0.02889074791166731</v>
       </c>
       <c r="K180" t="n">
         <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06067465337739347</v>
+        <v>0.05972827445017806</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1048984838664265</v>
+        <v>0.1048647957911342</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08600578161442041</v>
+        <v>0.09049919141825385</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1048906883508106</v>
+        <v>0.1048220827616557</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02872874310019276</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1061220766173307</v>
+        <v>0.05547089045782225</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02872874310019276</v>
+        <v>0.02886015669180567</v>
       </c>
       <c r="K181" t="n">
         <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05937278702825899</v>
+        <v>0.05986921028185513</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1058106445956998</v>
+        <v>0.1057766635806224</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08870187262656459</v>
+        <v>0.08981188127194406</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1058027812929915</v>
+        <v>0.1057335791334962</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02871916246726343</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1070369221054111</v>
+        <v>0.0554891510316536</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02871916246726343</v>
+        <v>0.02892791847088344</v>
       </c>
       <c r="K182" t="n">
         <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05872613155312686</v>
+        <v>0.06008254713497305</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1067228053249731</v>
+        <v>0.1066885313701105</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0877123995339939</v>
+        <v>0.08772818847373903</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1067148742351725</v>
+        <v>0.1066450755053367</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02930934417186055</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1079517675934916</v>
+        <v>0.05550654586263776</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02930934417186055</v>
+        <v>0.02860122502746894</v>
       </c>
       <c r="K183" t="n">
         <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05952479935596225</v>
+        <v>0.06052613799939471</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1076349660542463</v>
+        <v>0.1076003991595986</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0914087060750427</v>
+        <v>0.08581864778979209</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1076269671773534</v>
+        <v>0.1075565718771772</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02861043903346742</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.108866613081572</v>
+        <v>0.05552307495077482</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02861043903346742</v>
+        <v>0.02837418023396603</v>
       </c>
       <c r="K184" t="n">
         <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05870578426652007</v>
+        <v>0.05925851361864393</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1085471267835196</v>
+        <v>0.1085122669490867</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08806930741383096</v>
+        <v>0.09026221687594083</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1085390601195344</v>
+        <v>0.1084680682490177</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02873142791117879</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1097814585696524</v>
+        <v>0.05553873829606473</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02873142791117879</v>
+        <v>0.02866048449395805</v>
       </c>
       <c r="K185" t="n">
         <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05929819590221463</v>
+        <v>0.05713302754042107</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1094592875127929</v>
+        <v>0.1094241347385748</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09202295598677918</v>
+        <v>0.09135662684337498</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1094511530617154</v>
+        <v>0.1093795646208581</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02940669712616453</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1106963040577329</v>
+        <v>0.05555353589850748</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02940669712616453</v>
+        <v>0.02935935762207037</v>
       </c>
       <c r="K186" t="n">
         <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05769289907372926</v>
+        <v>0.06094263082751644</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1103714482420662</v>
+        <v>0.110336002528063</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08984635103990984</v>
+        <v>0.0899579827556074</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1103632460038963</v>
+        <v>0.1102910609926986</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0286196951903942</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1116111495458133</v>
+        <v>0.05556746775810311</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0286196951903942</v>
+        <v>0.028903995855207</v>
       </c>
       <c r="K187" t="n">
         <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05765373869874807</v>
+        <v>0.06132493095101241</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1112836089713394</v>
+        <v>0.1112478703175511</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09380960630868962</v>
+        <v>0.09001785816289343</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1112753389460773</v>
+        <v>0.1112025573645391</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02883782542449033</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1125259950338938</v>
+        <v>0.05558053387485157</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02883782542449033</v>
+        <v>0.02886668426749259</v>
       </c>
       <c r="K188" t="n">
         <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06060140403940542</v>
+        <v>0.0599062585309445</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1121957697006127</v>
+        <v>0.1121597381070392</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09073472604166749</v>
+        <v>0.09408796541421705</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1121874318882583</v>
+        <v>0.1121140537363796</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02986287350482308</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1134408405219742</v>
+        <v>0.05559273424875291</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02986287350482308</v>
+        <v>0.02918815858404941</v>
       </c>
       <c r="K189" t="n">
         <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05851545079503742</v>
+        <v>0.06034667574090677</v>
       </c>
       <c r="M189" t="n">
-        <v>0.113107930429886</v>
+        <v>0.1130716058965273</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09322548673229869</v>
+        <v>0.09287090529668013</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1130995248304392</v>
+        <v>0.1130255501082201</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0292006072124753</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1143556860100546</v>
+        <v>0.05560406887980709</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0292006072124753</v>
+        <v>0.02861551353587806</v>
       </c>
       <c r="K190" t="n">
         <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06081522409527268</v>
+        <v>0.06189665721535134</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1140200911591592</v>
+        <v>0.1139834736860155</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08775315551639101</v>
+        <v>0.08941157431170121</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1140116177726202</v>
+        <v>0.1139370464800606</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02890171891571469</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1152705314981351</v>
+        <v>0.05561453776801416</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02890171891571469</v>
+        <v>0.02912975717384696</v>
       </c>
       <c r="K191" t="n">
         <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05828550136728344</v>
+        <v>0.06096623064640672</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1149322518884325</v>
+        <v>0.1148953414755036</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09294863233956069</v>
+        <v>0.0907840348729832</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1149237107148012</v>
+        <v>0.114848542851901</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02894178225234779</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1161853769862155</v>
+        <v>0.05562414091337406</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02894178225234779</v>
+        <v>0.03000973186987024</v>
       </c>
       <c r="K192" t="n">
         <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05834128514523185</v>
+        <v>0.05892371846261563</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1158444126177058</v>
+        <v>0.1158072092649917</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09021661335160785</v>
+        <v>0.09208260054890627</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1158358036569821</v>
+        <v>0.1157600392237415</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02968260703419875</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1171002224742959</v>
+        <v>0.05563287831588681</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02968260703419875</v>
+        <v>0.02889787263990105</v>
       </c>
       <c r="K193" t="n">
         <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05797083569429134</v>
+        <v>0.06073917861353539</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1167565733469791</v>
+        <v>0.1167190770544798</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09106910679622821</v>
+        <v>0.08873339134584135</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1167478965991631</v>
+        <v>0.116671535595582</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02977430650983684</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1180150679623764</v>
+        <v>0.05564074997555243</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02977430650983684</v>
+        <v>0.0300717472557009</v>
       </c>
       <c r="K194" t="n">
         <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06002885540523289</v>
+        <v>0.06117673137449331</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1176687340762524</v>
+        <v>0.117630944843968</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09380513681495772</v>
+        <v>0.08810704912258188</v>
       </c>
       <c r="O194" t="n">
-        <v>0.117659989541344</v>
+        <v>0.1175830319674225</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02920779891483022</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1189299134504568</v>
+        <v>0.05564775589237092</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02920779891483022</v>
+        <v>0.02993977298186115</v>
       </c>
       <c r="K195" t="n">
         <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06195325653015415</v>
+        <v>0.0629904667077783</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1185808948055256</v>
+        <v>0.1185428126334561</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09366678552493335</v>
+        <v>0.08997135309109633</v>
       </c>
       <c r="O195" t="n">
-        <v>0.118572082483525</v>
+        <v>0.118494528339263</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02895456621541345</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1198447589385372</v>
+        <v>0.05565389606634224</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02895456621541345</v>
+        <v>0.02999518866899398</v>
       </c>
       <c r="K196" t="n">
         <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06269384345969534</v>
+        <v>0.0597046899326146</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1194930555347989</v>
+        <v>0.1194546804229442</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09438528136996061</v>
+        <v>0.09221210651719325</v>
       </c>
       <c r="O196" t="n">
-        <v>0.119484175425706</v>
+        <v>0.1194060247111035</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02923678922077923</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1207596044266177</v>
+        <v>0.05565917049746642</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02923678922077923</v>
+        <v>0.02951215437328171</v>
       </c>
       <c r="K197" t="n">
         <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0603555656589716</v>
+        <v>0.05945032898404576</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1204052162640722</v>
+        <v>0.1203665482124323</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09310824824132646</v>
+        <v>0.09425848001008325</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1203962683678869</v>
+        <v>0.120317521082944</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03028091390040133</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1216744499146981</v>
+        <v>0.05566357918574347</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03028091390040133</v>
+        <v>0.0290442271925339</v>
       </c>
       <c r="K198" t="n">
         <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06301370142783252</v>
+        <v>0.0624055535143653</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1213173769933454</v>
+        <v>0.1212784160019204</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09052303518389604</v>
+        <v>0.0923601874587906</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1213083613100679</v>
+        <v>0.1212290174547844</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02922201551902721</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1225892954027786</v>
+        <v>0.05566712213117338</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02922201551902721</v>
+        <v>0.02992062804309989</v>
       </c>
       <c r="K199" t="n">
         <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05944728309015634</v>
+        <v>0.05953512283847567</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1222295377226187</v>
+        <v>0.1221902837914086</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09297202909151675</v>
+        <v>0.09621516902994953</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1222204542522488</v>
+        <v>0.1221405138266249</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03032017830185392</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.123504140890859</v>
+        <v>0.05566979933375613</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03032017830185392</v>
+        <v>0.03041202586149211</v>
       </c>
       <c r="K200" t="n">
         <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06025142354419905</v>
+        <v>0.06000404414805741</v>
       </c>
       <c r="M200" t="n">
-        <v>0.123141698451892</v>
+        <v>0.1231021515808967</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09418969080865741</v>
+        <v>0.09471182636351838</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1231325471944298</v>
+        <v>0.1230520101984654</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03053603534921405</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1244189863789394</v>
+        <v>0.05567161079349175</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03053603534921405</v>
+        <v>0.03038404251453408</v>
       </c>
       <c r="K201" t="n">
         <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05962780885488111</v>
+        <v>0.06216188387512053</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1240538591811653</v>
+        <v>0.1240140193703848</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09400391926856633</v>
+        <v>0.08945380471595932</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1240446401366108</v>
+        <v>0.1239635065703059</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03018785921685502</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1253338318670199</v>
+        <v>0.05567255651038025</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03018785921685502</v>
+        <v>0.03013569270063356</v>
       </c>
       <c r="K202" t="n">
         <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0603851824618333</v>
+        <v>0.05986414779526786</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1249660199104385</v>
+        <v>0.1249258871598729</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09284825843746858</v>
+        <v>0.09084730981814926</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1249567330787917</v>
+        <v>0.1248750029421464</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02935814801819268</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1262486773551003</v>
+        <v>0.05567263648442157</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02935814801819268</v>
+        <v>0.02943872057475412</v>
       </c>
       <c r="K203" t="n">
         <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06366610374723614</v>
+        <v>0.0627322315513712</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1258781806397118</v>
+        <v>0.1258377549493611</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09483984159725778</v>
+        <v>0.09351981431367645</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1258688260209727</v>
+        <v>0.1257864993139869</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03004410700801442</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1271635228431807</v>
+        <v>0.05567185071561574</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03004410700801442</v>
+        <v>0.03088973761587868</v>
       </c>
       <c r="K204" t="n">
         <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06353852198719284</v>
+        <v>0.06194340890168532</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1267903413689851</v>
+        <v>0.1267496227388492</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09429213434756506</v>
+        <v>0.09514166589806561</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1267809189631536</v>
+        <v>0.1266979956858273</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02947815479432461</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1280783683312612</v>
+        <v>0.0556701992039628</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02947815479432461</v>
+        <v>0.0303010012587854</v>
       </c>
       <c r="K205" t="n">
         <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06248908752833102</v>
+        <v>0.06220952334827665</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1277025020982584</v>
+        <v>0.1276614905283373</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09358235629633693</v>
+        <v>0.09417077025512044</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1276930119053346</v>
+        <v>0.1276094920576678</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03068343141715905</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1289932138193416</v>
+        <v>0.05566768194946272</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03068343141715905</v>
+        <v>0.03021616923570351</v>
       </c>
       <c r="K206" t="n">
         <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05998643166123421</v>
+        <v>0.06433043436295269</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1286146628275316</v>
+        <v>0.1285733583178254</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09793645861339284</v>
+        <v>0.09376487219990332</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1286051048475156</v>
+        <v>0.1285209884295083</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03025055626118339</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1299080593074221</v>
+        <v>0.05566429895211546</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03025055626118339</v>
+        <v>0.02977578275275085</v>
       </c>
       <c r="K207" t="n">
         <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06258471698828608</v>
+        <v>0.06323259337605242</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1295268235568049</v>
+        <v>0.1294852261073136</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09225538221798091</v>
+        <v>0.09766390487366561</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1295171977896965</v>
+        <v>0.1294324848013488</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03032996318849773</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1308229047955025</v>
+        <v>0.05566005021192109</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03032996318849773</v>
+        <v>0.03087099964827329</v>
       </c>
       <c r="K208" t="n">
         <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06186427011316581</v>
+        <v>0.06244874858867991</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1304389842860782</v>
+        <v>0.1303970938968017</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09550373151261127</v>
+        <v>0.09652896578732389</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1304292907318775</v>
+        <v>0.1303439811731893</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0307685479863611</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1317377502835829</v>
+        <v>0.05565493572887957</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0307685479863611</v>
+        <v>0.03098792287647907</v>
       </c>
       <c r="K209" t="n">
         <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06108563320157084</v>
+        <v>0.06295771678486836</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1313511450153515</v>
+        <v>0.1313089616862898</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09415603314049259</v>
+        <v>0.0916559758189246</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1313413836740585</v>
+        <v>0.1312554775450298</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03035292131786657</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1326525957716634</v>
+        <v>0.05564895550299089</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03035292131786657</v>
+        <v>0.03023502294535355</v>
       </c>
       <c r="K210" t="n">
         <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06153152765315098</v>
+        <v>0.06170892685453133</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1322633057446247</v>
+        <v>0.1322208294757779</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09583994323965145</v>
+        <v>0.09376477688270074</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1322534766162394</v>
+        <v>0.1321669739168703</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03030657583540597</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1335674412597438</v>
+        <v>0.05564210953425509</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03030657583540597</v>
+        <v>0.03042774768344239</v>
       </c>
       <c r="K211" t="n">
         <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06368068479969899</v>
+        <v>0.06241823324324633</v>
       </c>
       <c r="M211" t="n">
-        <v>0.133175466473898</v>
+        <v>0.1331326972652661</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09328706444525947</v>
+        <v>0.09305311190834165</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1331655695584204</v>
+        <v>0.1330784702887107</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03074832015599549</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1344822867478243</v>
+        <v>0.05563439782267213</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03074832015599549</v>
+        <v>0.03050359359435531</v>
       </c>
       <c r="K212" t="n">
         <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06405060787306177</v>
+        <v>0.06195955149202814</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1340876272031713</v>
+        <v>0.1340445650547542</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09681184377987956</v>
+        <v>0.0946226432764965</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1340776625006013</v>
+        <v>0.1339899666605512</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03137171697610736</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1353971322359047</v>
+        <v>0.05562582036824204</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03137171697610736</v>
+        <v>0.03118268569389623</v>
       </c>
       <c r="K213" t="n">
         <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06289220513947993</v>
+        <v>0.06434939336157861</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1349997879324445</v>
+        <v>0.1349564328442423</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09687568924278317</v>
+        <v>0.0966904953356153</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1349897554427823</v>
+        <v>0.1349014630323917</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03012984299197326</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1363119777239851</v>
+        <v>0.05561637717096479</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03012984299197326</v>
+        <v>0.03094532034813736</v>
       </c>
       <c r="K214" t="n">
         <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06413629415032882</v>
+        <v>0.06210662601566097</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1359119486617178</v>
+        <v>0.1358683006337304</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09606293777379804</v>
+        <v>0.09945435092912658</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1359018483849633</v>
+        <v>0.1358129594042322</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0304829811990209</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1372268232120656</v>
+        <v>0.05560606823084042</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0304829811990209</v>
+        <v>0.03115606034157084</v>
       </c>
       <c r="K215" t="n">
         <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06247043410064665</v>
+        <v>0.0655135847983454</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1368241093909911</v>
+        <v>0.1367801684232186</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0965979140784195</v>
+        <v>0.09723319732553742</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1368139413271442</v>
+        <v>0.1367244557760727</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03163767216096738</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.138141668700146</v>
+        <v>0.0555948935478689</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03163767216096738</v>
+        <v>0.03101817096891206</v>
       </c>
       <c r="K216" t="n">
         <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06247314385345551</v>
+        <v>0.06484708086828023</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1377362701202644</v>
+        <v>0.1376920362127067</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09916859978902359</v>
+        <v>0.09685714349663538</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1377260342693252</v>
+        <v>0.1376359521479132</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03151026195209031</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1390565141882264</v>
+        <v>0.05558285312205023</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03151026195209031</v>
+        <v>0.0312421360904058</v>
       </c>
       <c r="K217" t="n">
         <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0646917633784195</v>
+        <v>0.06352171660742645</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1386484308495377</v>
+        <v>0.1386039040021948</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09852673004246804</v>
+        <v>0.09708702207692022</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1386381272115061</v>
+        <v>0.1385474485197536</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03150831004912026</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1399713596763069</v>
+        <v>0.05556994695338442</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03150831004912026</v>
+        <v>0.03110980053600693</v>
       </c>
       <c r="K218" t="n">
         <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06435188376321554</v>
+        <v>0.06529854933428109</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1395605915788109</v>
+        <v>0.1395157717916829</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09995403563226718</v>
+        <v>0.09668691339266716</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1395502201536871</v>
+        <v>0.1394589448915941</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03174397817524133</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1408862051643873</v>
+        <v>0.05555617504187147</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03174397817524133</v>
+        <v>0.03151021072986235</v>
       </c>
       <c r="K219" t="n">
         <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06583757429893164</v>
+        <v>0.06312572001871125</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1404727523080842</v>
+        <v>0.140427639581171</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0947465040650336</v>
+        <v>0.09684238698503445</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1404623130958681</v>
+        <v>0.1403704412634346</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03092268080832354</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1418010506524677</v>
+        <v>0.05554153738751139</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03092268080832354</v>
+        <v>0.03129529338378248</v>
       </c>
       <c r="K220" t="n">
         <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06516043160869334</v>
+        <v>0.06554393338169692</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1413849130373575</v>
+        <v>0.1413395073706592</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09858494850309651</v>
+        <v>0.09749973254060484</v>
       </c>
       <c r="O220" t="n">
-        <v>0.141374406038049</v>
+        <v>0.1412819376352751</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0317709862349831</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1427158961405482</v>
+        <v>0.05552603399030415</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0317709862349831</v>
+        <v>0.03186673784390248</v>
       </c>
       <c r="K221" t="n">
         <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06687024884964263</v>
+        <v>0.06564004109008506</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1422970737666308</v>
+        <v>0.1422513751601473</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09671610754756438</v>
+        <v>0.09444498425658671</v>
       </c>
       <c r="O221" t="n">
-        <v>0.14228649898023</v>
+        <v>0.1421934340071156</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03180064689659649</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1436307416286286</v>
+        <v>0.05550966485024977</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03180064689659649</v>
+        <v>0.03071481594904102</v>
       </c>
       <c r="K222" t="n">
         <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06307329947395401</v>
+        <v>0.06631952340284822</v>
       </c>
       <c r="M222" t="n">
-        <v>0.143209234495904</v>
+        <v>0.1431632429496354</v>
       </c>
       <c r="N222" t="n">
-        <v>0.100221776805726</v>
+        <v>0.09621423404873874</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1431985919224109</v>
+        <v>0.1431049303789561</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03176872124637133</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.144545587116709</v>
+        <v>0.05549242996734825</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03176872124637133</v>
+        <v>0.03208979088605995</v>
       </c>
       <c r="K223" t="n">
         <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06485623066303714</v>
+        <v>0.06298423674930603</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1441213952251773</v>
+        <v>0.1440751107391235</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1015765270027434</v>
+        <v>0.09740152730300428</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1441106848645919</v>
+        <v>0.1440164267507965</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03101904158352728</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1454604326047895</v>
+        <v>0.05547432934159957</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03101904158352728</v>
+        <v>0.03218057268213177</v>
       </c>
       <c r="K224" t="n">
         <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06286142461420605</v>
+        <v>0.06703187856553483</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1450335559544506</v>
+        <v>0.1449869785286117</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1011582481306815</v>
+        <v>0.1006345282244945</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1450227778067729</v>
+        <v>0.1449279231226371</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03102124029306008</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1463752780928699</v>
+        <v>0.05545536297300377</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03102124029306008</v>
+        <v>0.03173356367063025</v>
       </c>
       <c r="K225" t="n">
         <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06534284124931419</v>
+        <v>0.06513495764839475</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1459457166837239</v>
+        <v>0.1458988463180998</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1013024584651182</v>
+        <v>0.09583558202134318</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1459348707489538</v>
+        <v>0.1458394194944775</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03272491887529061</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1472901235809504</v>
+        <v>0.05543553086156081</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03272491887529061</v>
+        <v>0.03142507341236359</v>
       </c>
       <c r="K226" t="n">
         <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06528571593782201</v>
+        <v>0.06464793174146205</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1468578774129971</v>
+        <v>0.1468107141075879</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09676030553203385</v>
+        <v>0.1024488411276189</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1468469636911348</v>
+        <v>0.146750915866318</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03206098353131083</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1482049690690308</v>
+        <v>0.05541483300727072</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03206098353131083</v>
+        <v>0.03228559338694767</v>
       </c>
       <c r="K227" t="n">
         <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06604330610365272</v>
+        <v>0.06748726651586956</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1477700381422704</v>
+        <v>0.147722581897076</v>
       </c>
       <c r="N227" t="n">
-        <v>0.100203213425447</v>
+        <v>0.1018094412958978</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1477590566333158</v>
+        <v>0.1476624122381585</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03186336803051466</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1491198145571112</v>
+        <v>0.05539326941013349</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03186336803051466</v>
+        <v>0.03152524564292851</v>
       </c>
       <c r="K228" t="n">
         <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06606651654121987</v>
+        <v>0.06458457029907105</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1486821988715437</v>
+        <v>0.1486344496865641</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09625900037544777</v>
+        <v>0.1019743039928306</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1486711495754967</v>
+        <v>0.148573908609999</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03191826873609691</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1500346600451917</v>
+        <v>0.05537084007014911</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03191826873609691</v>
+        <v>0.0321894940665164</v>
       </c>
       <c r="K229" t="n">
         <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06815318183890359</v>
+        <v>0.06834974915473749</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1495943596008169</v>
+        <v>0.1495463174760523</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09880804065108784</v>
+        <v>0.09981069225172445</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1495832425176777</v>
+        <v>0.1494854049818395</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03190329415722408</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1509495055332721</v>
+        <v>0.05534754498731758</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03190329415722408</v>
+        <v>0.03194570667635228</v>
       </c>
       <c r="K230" t="n">
         <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06649659319485465</v>
+        <v>0.06445579292056144</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1505065203300902</v>
+        <v>0.1504581852655404</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0978297826132713</v>
+        <v>0.09779322937732654</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1504953354598586</v>
+        <v>0.1503969013536799</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03234262150913185</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1518643510213525</v>
+        <v>0.05532338416163892</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03234262150913185</v>
+        <v>0.03241086762868682</v>
       </c>
       <c r="K231" t="n">
         <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06810791550303946</v>
+        <v>0.06777623207472738</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1514186810593635</v>
+        <v>0.1513700530550285</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1012508270991754</v>
+        <v>0.09779450964181524</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1514074284020396</v>
+        <v>0.1513083977255204</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03248937940497534</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.152779196509433</v>
+        <v>0.05529835759311312</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03248937940497534</v>
+        <v>0.03237180393531963</v>
       </c>
       <c r="K232" t="n">
         <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06549578214448912</v>
+        <v>0.06772508657335741</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1523308417886368</v>
+        <v>0.1522819208445166</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1022681462749994</v>
+        <v>0.09794692215107226</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1523195213442206</v>
+        <v>0.1522198940973609</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03205538622455062</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1536940419975134</v>
+        <v>0.05527246528174017</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03205538622455062</v>
+        <v>0.0329566608312795</v>
       </c>
       <c r="K233" t="n">
         <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06766864113752818</v>
+        <v>0.06909494874817032</v>
       </c>
       <c r="M233" t="n">
-        <v>0.15324300251791</v>
+        <v>0.1531937886340048</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1047521008809639</v>
+        <v>0.102501769101758</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1532316142864015</v>
+        <v>0.1531313904692014</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03200049255290975</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1546088874855939</v>
+        <v>0.05524570722752007</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03200049255290975</v>
+        <v>0.0327694008307329</v>
       </c>
       <c r="K234" t="n">
         <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06770544435190495</v>
+        <v>0.06490029850770002</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1541551632471833</v>
+        <v>0.1541056564234929</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1005309712514207</v>
+        <v>0.1042923526599569</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1541437072285825</v>
+        <v>0.1540428868410419</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03306306757199114</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1555237329736743</v>
+        <v>0.05521808343045283</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03306306757199114</v>
+        <v>0.03166611945130547</v>
       </c>
       <c r="K235" t="n">
         <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06633675870516678</v>
+        <v>0.06917682519823756</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1550673239764566</v>
+        <v>0.155017524212981</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1019248539664559</v>
+        <v>0.0983260155364743</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1550558001707635</v>
+        <v>0.1549543832128824</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03316828236837849</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1564385784617547</v>
+        <v>0.05518959389053846</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03316828236837849</v>
+        <v>0.03223262811855693</v>
       </c>
       <c r="K236" t="n">
         <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.066762701595523</v>
+        <v>0.06552859482533843</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1559794847057299</v>
+        <v>0.1559293920024692</v>
       </c>
       <c r="N236" t="n">
-        <v>0.099761023994419</v>
+        <v>0.1039757043000419</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1559678931129444</v>
+        <v>0.1558658795847228</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03217689860789127</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1573534239498352</v>
+        <v>0.05516023860777693</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03217689860789127</v>
+        <v>0.03281582577188547</v>
       </c>
       <c r="K237" t="n">
         <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06762063137936006</v>
+        <v>0.06901447608884897</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1568916454350031</v>
+        <v>0.1568412597919573</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1025893448210262</v>
+        <v>0.1001907850029151</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1568799860551254</v>
+        <v>0.1567773759565634</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03315906770152012</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1582682694379156</v>
+        <v>0.05513001758216827</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03315906770152012</v>
+        <v>0.03231406633736207</v>
       </c>
       <c r="K238" t="n">
         <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06973283261681332</v>
+        <v>0.06565185195521187</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1578038061642764</v>
+        <v>0.1577531275814454</v>
       </c>
       <c r="N238" t="n">
-        <v>0.103268276309363</v>
+        <v>0.1040485203454505</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1577920789973064</v>
+        <v>0.1576888723284038</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03259859988783712</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.159183114925996</v>
+        <v>0.05509893081371246</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03259859988783712</v>
+        <v>0.03196013773289591</v>
       </c>
       <c r="K239" t="n">
         <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06642047679286869</v>
+        <v>0.0691992469046851</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1587159668935497</v>
+        <v>0.1586649953709335</v>
       </c>
       <c r="N239" t="n">
-        <v>0.103395635858347</v>
+        <v>0.1000579954630619</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1587041719394873</v>
+        <v>0.1586003687002443</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03342476068066023</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1600979604140765</v>
+        <v>0.05506697830240952</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03342476068066023</v>
+        <v>0.03311780733143467</v>
       </c>
       <c r="K240" t="n">
         <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06655679999701641</v>
+        <v>0.0661126563939797</v>
       </c>
       <c r="M240" t="n">
-        <v>0.159628127622823</v>
+        <v>0.1595768631604217</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09965500692569912</v>
+        <v>0.1022783073151515</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1596162648816683</v>
+        <v>0.1595118650720848</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03244822967690662</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1610128059021569</v>
+        <v>0.05503416004825942</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03244822967690662</v>
+        <v>0.03265605502856046</v>
       </c>
       <c r="K241" t="n">
         <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06851809031849457</v>
+        <v>0.06901436892726737</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1605402883520962</v>
+        <v>0.1604887309499098</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1016224386224964</v>
+        <v>0.1020209856859887</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1605283578238492</v>
+        <v>0.1604233614439253</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03274231846887085</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1619276513902373</v>
+        <v>0.05500047605126218</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03274231846887085</v>
+        <v>0.03353280003533782</v>
       </c>
       <c r="K242" t="n">
         <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06650406627078409</v>
+        <v>0.06763789292363137</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1614524490813695</v>
+        <v>0.1614005987393979</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1005165223396839</v>
+        <v>0.1007921129699173</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1614404507660302</v>
+        <v>0.1613348578157658</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03215416926795535</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1628424968783178</v>
+        <v>0.05496592631141781</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03215416926795535</v>
+        <v>0.03330364152013181</v>
       </c>
       <c r="K243" t="n">
         <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0666296181574198</v>
+        <v>0.07055682836823163</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1623646098106428</v>
+        <v>0.162312466528886</v>
       </c>
       <c r="N243" t="n">
-        <v>0.102664297855544</v>
+        <v>0.1040835730030191</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1623525437082111</v>
+        <v>0.1622463541876062</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03354902162758176</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1637573423663982</v>
+        <v>0.05493051082872628</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03354902162758176</v>
+        <v>0.0322485198007869</v>
       </c>
       <c r="K244" t="n">
         <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06933707955736618</v>
+        <v>0.0703695497045885</v>
       </c>
       <c r="M244" t="n">
-        <v>0.163276770539916</v>
+        <v>0.1632243343183741</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1065816167918566</v>
+        <v>0.1022090596710001</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1632646366503921</v>
+        <v>0.1631578505594467</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03383655696447226</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1646721878544787</v>
+        <v>0.05489422960318762</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03383655696447226</v>
+        <v>0.03417841171686697</v>
       </c>
       <c r="K245" t="n">
         <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07022163466757853</v>
+        <v>0.06850233322806876</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1641889312691893</v>
+        <v>0.1641362021078623</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1054913204776399</v>
+        <v>0.1073021679912948</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1641767295925731</v>
+        <v>0.1640693469312872</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03381545979420308</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1655870333425591</v>
+        <v>0.05485708263480181</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03381545979420308</v>
+        <v>0.03328091611166618</v>
       </c>
       <c r="K246" t="n">
         <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07025947399136714</v>
+        <v>0.06713537766681252</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1651010919984626</v>
+        <v>0.1650480698973504</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1053209046139328</v>
+        <v>0.1037211586122698</v>
       </c>
       <c r="O246" t="n">
-        <v>0.165088822534754</v>
+        <v>0.1649808433031277</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03281508800402935</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1665018788306395</v>
+        <v>0.05481906992356887</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03281508800402935</v>
+        <v>0.03421154477292913</v>
       </c>
       <c r="K247" t="n">
         <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06720668816605652</v>
+        <v>0.0711204050592312</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1660132527277359</v>
+        <v>0.1659599376868385</v>
       </c>
       <c r="N247" t="n">
-        <v>0.10612416888506</v>
+        <v>0.1035196683959091</v>
       </c>
       <c r="O247" t="n">
-        <v>0.166000915476935</v>
+        <v>0.1658923396749682</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03422376275153023</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.16741672431872</v>
+        <v>0.05478019146948878</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03422376275153023</v>
+        <v>0.03295142008096845</v>
       </c>
       <c r="K248" t="n">
         <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0706679310181966</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1669254134570091</v>
+        <v>0.1668718054763266</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1085036581635507</v>
+        <v>0.1057039822562177</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1669130084191159</v>
+        <v>0.1668038360468087</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03385844277556199</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1683315698068004</v>
+        <v>0.05474044727256155</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03385844277556199</v>
+        <v>0.03361554476912058</v>
       </c>
       <c r="K249" t="n">
         <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07066682318550355</v>
+        <v>0.06943782393818904</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1678375741862824</v>
+        <v>0.1677836732658148</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1071153290433443</v>
+        <v>0.1023078201628078</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1678251013612969</v>
+        <v>0.1677153324186491</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03381967578690055</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1692464152948809</v>
+        <v>0.05469983733278716</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03381967578690055</v>
+        <v>0.03414663791489507</v>
       </c>
       <c r="K250" t="n">
         <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07011372100442728</v>
+        <v>0.06987816648734721</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1687497349155557</v>
+        <v>0.1686955410553029</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1085192710160234</v>
+        <v>0.1040377852182175</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1687371943034779</v>
+        <v>0.1686268287904897</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03300937686468935</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1701612607829613</v>
+        <v>0.05465836165016564</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03300937686468935</v>
+        <v>0.03368978599720311</v>
       </c>
       <c r="K251" t="n">
         <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06810032495661703</v>
+        <v>0.06792298586165604</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1696618956448289</v>
+        <v>0.169607408844791</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1019794471008666</v>
+        <v>0.1063900216211492</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1696492872456588</v>
+        <v>0.1695383251623301</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03345671925513508</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1710761062710417</v>
+        <v>0.05461602022469698</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03345671925513508</v>
+        <v>0.03335751143759001</v>
       </c>
       <c r="K252" t="n">
         <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06989332215307295</v>
+        <v>0.06992791934384091</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1705740563741023</v>
+        <v>0.1705192766342791</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1062206820701427</v>
+        <v>0.1052951859166947</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1705613801878398</v>
+        <v>0.1704498215341706</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03439149131781366</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1719909517591222</v>
+        <v>0.05457281305638118</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03439149131781366</v>
+        <v>0.03365254398366803</v>
       </c>
       <c r="K253" t="n">
         <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06990450061365239</v>
+        <v>0.07167541252928783</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1714862171033755</v>
+        <v>0.1714311444237673</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1060663249322438</v>
+        <v>0.1094254003541641</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1714734731300208</v>
+        <v>0.1713613179060111</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03358969046690201</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1729057972472026</v>
+        <v>0.05452874014521822</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03358969046690201</v>
+        <v>0.03324271184513967</v>
       </c>
       <c r="K254" t="n">
         <v>0.1729057972472026</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06949447679430598</v>
+        <v>0.07119215431861339</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1723983778326488</v>
+        <v>0.1723430122132554</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1078226429053554</v>
+        <v>0.103671560917635</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1723855660722017</v>
+        <v>0.1722728142778516</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03398806427618047</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.173820642735283</v>
+        <v>0.05448380149120813</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03398806427618047</v>
+        <v>0.03440705994632944</v>
       </c>
       <c r="K255" t="n">
         <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07031556618929174</v>
+        <v>0.06779854255472864</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1733105385619221</v>
+        <v>0.1732548800027435</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1047704174995213</v>
+        <v>0.1040004660164556</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1732976590143827</v>
+        <v>0.1731843106496921</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03485799582570953</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1747354882233635</v>
+        <v>0.0544379970943509</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03485799582570953</v>
+        <v>0.03320673492453693</v>
       </c>
       <c r="K256" t="n">
         <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07102890338608633</v>
+        <v>0.07221225273662027</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1742226992911953</v>
+        <v>0.1741667477922316</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1054850038678395</v>
+        <v>0.1049362677505139</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1742097519565636</v>
+        <v>0.1740958070215325</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1756503337114439</v>
+        <v>0.05439132695464653</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03422841150428435</v>
       </c>
       <c r="K257" t="n">
         <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07231619270625439</v>
+        <v>0.06975656893373663</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1751348600204686</v>
+        <v>0.1750786155817197</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1079813019264568</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1751218448987446</v>
+        <v>0.175007303393373</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03441410709380646</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1765651791995244</v>
+        <v>0.05434379107209499</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03441410709380646</v>
+        <v>0.03364547754152146</v>
       </c>
       <c r="K258" t="n">
         <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07126539047249475</v>
+        <v>0.06962988606374917</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1760470207497419</v>
+        <v>0.1759904833712079</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1057012976039871</v>
+        <v>0.1062161372853149</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1760339378409256</v>
+        <v>0.1759187997652135</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03440254062946772</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1774800246876048</v>
+        <v>0.05429538944669634</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03440254062946772</v>
+        <v>0.03507188520799093</v>
       </c>
       <c r="K259" t="n">
         <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07007525086655828</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1769591814790152</v>
+        <v>0.176902351160696</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1085293602598795</v>
+        <v>0.1090943747562705</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1769460307831065</v>
+        <v>0.176830296137054</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03535969844282728</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1783948701756852</v>
+        <v>0.05424612207845052</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03535969844282728</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K260" t="n">
         <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07238433204899411</v>
+        <v>0.06970509434566546</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1778713422082884</v>
+        <v>0.1778142189501841</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1059146816155534</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1778581237252875</v>
+        <v>0.1777417925088945</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03430243621672738</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1793097156637657</v>
+        <v>0.05419598896735759</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03430243621672738</v>
+        <v>0.03525436340706947</v>
       </c>
       <c r="K261" t="n">
         <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07182665879857977</v>
+        <v>0.07154958254254479</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1787835029375617</v>
+        <v>0.1787260867396722</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1109676762796669</v>
+        <v>0.1089271247444763</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1787702166674685</v>
+        <v>0.178653288880735</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03500128326788012</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1802245611518461</v>
+        <v>0.05414499011341749</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03500128326788012</v>
+        <v>0.03484193788205873</v>
       </c>
       <c r="K262" t="n">
         <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07181243450414121</v>
+        <v>0.07162432561801746</v>
       </c>
       <c r="M262" t="n">
-        <v>0.179695663666835</v>
+        <v>0.1796379545291604</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1047196968271437</v>
+        <v>0.1058958890119376</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1796823096096494</v>
+        <v>0.1795647852525754</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03439100534424872</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1811394066399265</v>
+        <v>0.05409312551663027</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03439100534424872</v>
+        <v>0.03417220453230105</v>
       </c>
       <c r="K263" t="n">
         <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07170799212268306</v>
+        <v>0.06977750738644523</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1806078243961083</v>
+        <v>0.1805498223186485</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1052112536236002</v>
+        <v>0.1107585673101045</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1805944025518304</v>
+        <v>0.180476281624416</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03426533224780552</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.182054252128007</v>
+        <v>0.05404039517699588</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03426533224780552</v>
+        <v>0.03413135771610597</v>
       </c>
       <c r="K264" t="n">
         <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07060406129603869</v>
+        <v>0.07052590917584006</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1815199851253816</v>
+        <v>0.1814616901081366</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1117947173275549</v>
+        <v>0.1085654503914353</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1815064954940113</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1813877779962564</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05404039517699588</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05400828271761027</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05397703600107179</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05394665502738047</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05391713979653627</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05388849030853923</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05386070656338934</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05383378856108657</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05380773630163096</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05378254978502248</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05375822901126116</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05373477398034696</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05371218469227991</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05369046114706002</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05366960334468725</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05364961128516164</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05363048496848316</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05361222439465183</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05359482956366763</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0535783004755306</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0535626371302407</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05354783952779794</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05353390766820233</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05352084155145383</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05350864117755251</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05349730654649831</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05348683765829127</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05347723451293138</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05346849711041861</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.053460625450753</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05345361953393452</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05344747935996318</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05344220492883898</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05343779624056194</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05343425329513205</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05343157609254928</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05342976463281367</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05342881891592519</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05342873894188385</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05342952471068965</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05343117622234262</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05343369347684273</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05343707647418994</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05344132521438433</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05344643969742586</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05345241992331452</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05345926589205032</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05346697760363329</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05347555505806338</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05348499825534062</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.053495307195465</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05350648187843652</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05351852230425519</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05353142847292099</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05354520038443394</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05355983803879404</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05357534143600128</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05359171057605566</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05360894545895718</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05362704608470585</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05364601245330165</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0536658445647446</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0536865424190347</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05370810601617193</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05373053535615632</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05375383043898784</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0537779912646665</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05380301783319232</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05382891014456526</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05385566819878535</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05388329199585259</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05391178153576696</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05394113681852849</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05397135784413715</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400244461259297</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05403439712389591</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.054067215378046</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05410089937504323</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413544911488762</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05417086459757912</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0542071458231178</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424429279150361</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428230550273656</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432118395681665</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0543609281537439</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05440153809351826</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444301377613979</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448535520160844</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452856236992425</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0545726352810872</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05461757393509729</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466337833195454</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0547100484716589</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475758435421042</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480598597960908</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0548552533478549</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490538645894785</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495638531288793</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500824990967516</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07488759472277354</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0568822676105892</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07437316423408592</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05870355497186887</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07387780295083006</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06052484233314854</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07340170714351965</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0623461296944282</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07294507308266833</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06416741705570787</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07250809703878977</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06598870441698752</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07209097528239762</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06780999177826719</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07169390408400558</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06963127913954685</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07131707971412729</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07145256650082653</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07096069844327643</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07327385386210619</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07062495654196665</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07509514122338586</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07031005028071162</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07691642858466552</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07001617593002503</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0787377159459452</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0697435297604205</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08055900330722486</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06949230804241173</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08238029066850452</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06926270704651237</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08420157802978419</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0690549230432361</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08602286539106385</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06886915230309656</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08784415275234352</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06870559109660744</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08966544011362317</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06856443569428237</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09148672747490284</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06844588236663507</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09330801483618251</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06835012738417917</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09512930219746217</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06827736701742833</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09695058955874185</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06822779753689623</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09877187692002151</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06820161521309653</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1005931642813012</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06820014743157582</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1024144516425808</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06823409996986449</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1042357390038605</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0683050752022822</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1060570263651402</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06841181736415015</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1078783137264198</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06855307069078952</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1096996010876995</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0687275794175215</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1115208884489792</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06893408777966725</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1133421758102588</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06917134001254799</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1151634631715385</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06943808035148485</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1169847505328182</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06973305303179907</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1188060378940978</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07005500228881179</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1206273252553775</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.07040267235784421</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1224486126166572</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07077480747421749</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1242698999779368</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07117015187325285</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1260911873392165</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07158744979027146</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1279124747004961</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07202544546059446</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1297337620617758</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0724828831195431</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1315550494230555</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0729585070024385</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1333763367843351</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0734510613446019</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1351976241456148</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07395929038135443</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1370189115068945</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07448193834801732</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1388401988681741</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07501774947991172</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1406614862294538</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07556546801235881</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1424827735907335</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07612383818067979</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1443040609520131</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07669160422019583</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1461253483132928</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07726751036622813</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1479466356745725</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07785030085409786</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07843871991912618</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1515892103971318</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07903151179663431</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1534104977584115</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.07962742072194343</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1552317851196911</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08022519093037467</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1570530724809708</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08082356665724927</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1588743598422505</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08142129213788839</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1606956472035301</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08201711160761321</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1625169345648098</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08260976930174492</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1643382219260895</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08319800945560471</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1661595092873691</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.08378057630451377</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1679807966486488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.08435621408379321</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1698020840099284</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0849236670287643</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1716233713712081</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.08548167937474821</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1734446587324878</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.08602899535706604</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1752659460937674</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.08656435921103908</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1770872334550471</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.08708651517198845</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1789085208163267</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.08759420747523536</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1807298081776064</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.08808618035610097</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1825510955388861</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.08856117804990651</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1843723829001658</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.08901824740783898</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1861936702614455</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.08946898716264409</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1880149576227251</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.08991986006556532</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1898362449840048</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09037086369213043</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1916575323452844</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09082199561786727</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1934788197065641</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09127325341830364</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1953001070678438</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09172463466896733</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1971213944291234</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09217613694538615</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1989426817904031</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.09262775782308794</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2007639691516828</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0930794948776005</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2025852565129624</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09353134568445165</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2044065438742421</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09398330781916917</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2062278312355217</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0944353788572809</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2080491185968014</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09488755637431462</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2098704059580811</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09533983794579817</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2116916933193607</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09579222114725935</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2135129806806404</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09624470355422599</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.21533426804192</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09669728274222586</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2171555554031997</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.09714995628678685</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2189768427644794</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09760272176343671</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2207981301257591</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09805557674770321</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2226194174870388</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09850851881511424</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2244407048483184</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0989615455411976</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2262619922095981</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09941465450148107</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2280832795708777</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09986784327149245</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2299045669321574</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1003211094267596</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2317258542934371</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2335471416547167</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2353684290159964</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
